--- a/Performance_AIFlightPro_CAB_Report.xlsx
+++ b/Performance_AIFlightPro_CAB_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/riturajpandey/Documents/AI Flight Pro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Performance_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DC1DAE-55A1-2245-8C36-C96CCEFE062D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1580BCA0-704A-41AE-9F81-20806227AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" tabRatio="892" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="892" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Response Times'!$E$2:$F$6</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Hardware!$B$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Hardware!$C$6:$C$8</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Hardware!$C$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Hardware!$B$30</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hardware!$C$28:$C$29</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hardware!$C$30</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Hardware!$B$9</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Hardware!$C$6:$C$8</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Hardware!$C$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Hardware!$B$30</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Hardware!$C$28:$C$29</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Hardware!$C$30</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -528,7 +525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -804,8 +801,15 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,6 +886,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1186,7 +1195,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
@@ -1196,8 +1205,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1392,35 +1402,38 @@
     <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="29" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="7" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="9" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="9" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="26" fillId="9" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1431,19 +1444,10 @@
     <xf numFmtId="10" fontId="26" fillId="9" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="9" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="9" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1452,41 +1456,62 @@
     <xf numFmtId="2" fontId="21" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="26" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="26" fillId="9" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1500,77 +1525,29 @@
     <xf numFmtId="0" fontId="23" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="29" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1608,6 +1585,39 @@
     <xf numFmtId="0" fontId="32" fillId="10" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,6 +1626,21 @@
     </xf>
     <xf numFmtId="2" fontId="23" fillId="7" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1647,21 +1672,6 @@
     <xf numFmtId="2" fontId="10" fillId="7" borderId="8" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1674,8 +1684,15 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="38" fillId="14" borderId="10" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="14" borderId="12" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
+    <cellStyle name="Bad" xfId="9" builtinId="27"/>
     <cellStyle name="Excel Built-in Bad" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Excel Built-in Bad 1" xfId="7" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Excel Built-in Normal" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
@@ -1686,7 +1703,907 @@
     <cellStyle name="Normal 8 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="183">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1780,6 +2697,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1830,6 +2757,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1840,6 +2777,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1860,6 +2827,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1880,6 +2857,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1960,6 +2957,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1980,6 +2987,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2000,6 +3017,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2020,6 +3067,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2040,6 +3097,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2100,6 +3177,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2120,6 +3207,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2160,6 +3257,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2200,6 +3307,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2230,6 +3347,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2240,6 +3367,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2270,6 +3417,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2280,6 +3437,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2320,6 +3487,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2350,271 +3527,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4989,10 +5906,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5003,7 +5920,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{A2AEC4F1-9C9F-324F-ADD5-49BC444ADCCC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Memory Utilization Avg %</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7807,8 +8724,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8853055" y="199551"/>
-          <a:ext cx="10763826" cy="12665549"/>
+          <a:off x="7984375" y="202091"/>
+          <a:ext cx="9656386" cy="12622369"/>
           <a:chOff x="5926062" y="306404"/>
           <a:chExt cx="5115468" cy="6129324"/>
         </a:xfrm>
@@ -7951,8 +8868,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8458108" y="410204"/>
-              <a:ext cx="4974259" cy="4481413"/>
+              <a:off x="7645308" y="394964"/>
+              <a:ext cx="4466259" cy="4224873"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7971,7 +8888,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-IN" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -8029,8 +8946,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8486585" y="5581650"/>
-              <a:ext cx="4988115" cy="3915833"/>
+              <a:off x="7673785" y="5160010"/>
+              <a:ext cx="4480115" cy="3796453"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8049,7 +8966,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-IN" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -8064,9 +8981,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8104,7 +9021,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -8210,7 +9127,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8352,7 +9269,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8366,15 +9283,15 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="2.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.5" style="2"/>
+    <col min="7" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6">
       <c r="B2" s="78" t="s">
         <v>101</v>
       </c>
@@ -8383,7 +9300,7 @@
       <c r="E2" s="78"/>
       <c r="F2" s="78"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6">
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
@@ -8394,7 +9311,7 @@
       <c r="E3" s="79"/>
       <c r="F3" s="79"/>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:6">
       <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
@@ -8405,7 +9322,7 @@
       <c r="E4" s="77"/>
       <c r="F4" s="77"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6">
       <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
@@ -8416,7 +9333,7 @@
       <c r="E5" s="77"/>
       <c r="F5" s="77"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6">
       <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
@@ -8427,7 +9344,7 @@
       <c r="E6" s="77"/>
       <c r="F6" s="77"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6">
       <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
@@ -8438,7 +9355,7 @@
       <c r="E7" s="77"/>
       <c r="F7" s="77"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6">
       <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
@@ -8482,1769 +9399,2065 @@
   </sheetPr>
   <dimension ref="A1:ALX103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A50" zoomScale="115" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64:G64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="3" customWidth="1"/>
     <col min="2" max="2" width="49.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="15.1640625" style="3" customWidth="1"/>
+    <col min="4" max="9" width="15.109375" style="3" customWidth="1"/>
     <col min="10" max="1012" width="8.6640625" style="3"/>
-    <col min="1013" max="1025" width="11.5" style="2" customWidth="1"/>
+    <col min="1013" max="1025" width="11.44140625" style="2" customWidth="1"/>
     <col min="1026" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:14" ht="13.5" customHeight="1"/>
+    <row r="2" spans="2:14" ht="13.5" customHeight="1">
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="N2" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="118" t="s">
+    <row r="3" spans="2:14" ht="21" customHeight="1">
+      <c r="B3" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-    </row>
-    <row r="4" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="119" t="s">
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+    </row>
+    <row r="4" spans="2:14" ht="21" customHeight="1">
+      <c r="B4" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119" t="s">
+      <c r="C4" s="111"/>
+      <c r="D4" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
       <c r="L4" s="8"/>
     </row>
-    <row r="5" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="111" t="s">
+    <row r="5" spans="2:14" ht="21" customHeight="1">
+      <c r="B5" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="117" t="s">
+      <c r="C5" s="99"/>
+      <c r="D5" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="111" t="s">
+    <row r="6" spans="2:14" ht="21" customHeight="1">
+      <c r="B6" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="111"/>
-      <c r="D6" s="120" t="s">
+      <c r="C6" s="99"/>
+      <c r="D6" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="2:14" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="111" t="s">
+    <row r="7" spans="2:14" ht="70.05" customHeight="1">
+      <c r="B7" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="121" t="s">
+      <c r="C7" s="99"/>
+      <c r="D7" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="111" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="111"/>
-      <c r="D8" s="102" t="s">
+      <c r="C8" s="99"/>
+      <c r="D8" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="102"/>
-      <c r="F8" s="115" t="s">
+      <c r="E8" s="80"/>
+      <c r="F8" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115" t="s">
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="115"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="112">
+      <c r="J8" s="120"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="117">
         <v>45902</v>
       </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="116" t="s">
+      <c r="E9" s="117"/>
+      <c r="F9" s="101" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116" t="s">
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="J9" s="116"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="111" t="s">
+      <c r="J9" s="101"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="111"/>
-      <c r="D10" s="117">
+      <c r="C10" s="99"/>
+      <c r="D10" s="112">
         <v>166</v>
       </c>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-    </row>
-    <row r="11" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="128" t="s">
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="112"/>
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+    </row>
+    <row r="11" spans="2:14" ht="15" customHeight="1">
+      <c r="B11" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="87" t="s">
+      <c r="C11" s="102"/>
+      <c r="D11" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="87" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="89"/>
-    </row>
-    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="108">
+      <c r="I11" s="83"/>
+      <c r="J11" s="82"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1">
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="115">
         <v>2</v>
       </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110" t="s">
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-    </row>
-    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="111" t="s">
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1">
+      <c r="B13" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="87" t="s">
+      <c r="C13" s="99"/>
+      <c r="D13" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="87" t="s">
+      <c r="E13" s="82"/>
+      <c r="F13" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="89"/>
-      <c r="H13" s="87" t="s">
+      <c r="G13" s="82"/>
+      <c r="H13" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="89"/>
-    </row>
-    <row r="14" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="111"/>
-      <c r="C14" s="111"/>
-      <c r="D14" s="127">
+      <c r="I13" s="83"/>
+      <c r="J13" s="82"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" customHeight="1">
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100">
         <v>0.97</v>
       </c>
-      <c r="E14" s="116"/>
-      <c r="F14" s="113">
+      <c r="E14" s="101"/>
+      <c r="F14" s="118">
         <v>0.95</v>
       </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="110" t="s">
+      <c r="G14" s="119"/>
+      <c r="H14" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="105" t="str">
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="B15" s="84" t="str">
         <f>'Pass Fail'!D6</f>
         <v>SC01_Homepage_T01_GetUserDetails</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="89"/>
-      <c r="F15" s="87" t="s">
+      <c r="E15" s="82"/>
+      <c r="F15" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="89"/>
-      <c r="H15" s="87" t="s">
+      <c r="G15" s="82"/>
+      <c r="H15" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="89"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="106"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="116">
+      <c r="I15" s="83"/>
+      <c r="J15" s="82"/>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="B16" s="85"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="101">
         <f>'Pass Fail'!K6</f>
         <v>31428</v>
       </c>
-      <c r="E16" s="116"/>
-      <c r="F16" s="96">
+      <c r="E16" s="101"/>
+      <c r="F16" s="89">
         <f>'Pass Fail'!L6</f>
         <v>32200</v>
       </c>
-      <c r="G16" s="97"/>
-      <c r="H16" s="110" t="s">
+      <c r="G16" s="90"/>
+      <c r="H16" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="106"/>
-      <c r="C17" s="101" t="s">
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" s="85"/>
+      <c r="C17" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="87" t="s">
+      <c r="E17" s="80"/>
+      <c r="F17" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="89"/>
-      <c r="H17" s="87" t="s">
+      <c r="G17" s="82"/>
+      <c r="H17" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="88"/>
-      <c r="J17" s="89"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="107"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="103">
+      <c r="I17" s="83"/>
+      <c r="J17" s="82"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="86"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95">
         <f>'Pass Fail'!M6</f>
         <v>8.73</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="98">
+      <c r="E18" s="95"/>
+      <c r="F18" s="96">
         <f>'Pass Fail'!N6</f>
         <v>8.9444444444444446</v>
       </c>
-      <c r="G18" s="99"/>
-      <c r="H18" s="90" t="s">
+      <c r="G18" s="97"/>
+      <c r="H18" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="91"/>
-      <c r="J18" s="92"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="105" t="str">
+      <c r="I18" s="92"/>
+      <c r="J18" s="93"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="84" t="str">
         <f>'Pass Fail'!D7</f>
         <v>SC01_Homepage_ST02_GetAllMasterData_DelayReason</v>
       </c>
-      <c r="C19" s="100" t="s">
+      <c r="C19" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="87" t="s">
+      <c r="E19" s="82"/>
+      <c r="F19" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="89"/>
-      <c r="H19" s="87" t="s">
+      <c r="G19" s="82"/>
+      <c r="H19" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="88"/>
-      <c r="J19" s="89"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="116">
+      <c r="I19" s="83"/>
+      <c r="J19" s="82"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="85"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="101">
         <f>'Pass Fail'!K7</f>
         <v>31428</v>
       </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="96">
+      <c r="E20" s="101"/>
+      <c r="F20" s="89">
         <f>'Pass Fail'!L7</f>
         <v>32144</v>
       </c>
-      <c r="G20" s="97"/>
-      <c r="H20" s="110" t="s">
+      <c r="G20" s="90"/>
+      <c r="H20" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="106"/>
-      <c r="C21" s="101" t="s">
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="85"/>
+      <c r="C21" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="87" t="s">
+      <c r="E21" s="80"/>
+      <c r="F21" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="89"/>
-      <c r="H21" s="87" t="s">
+      <c r="G21" s="82"/>
+      <c r="H21" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I21" s="88"/>
-      <c r="J21" s="89"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="107"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="103">
+      <c r="I21" s="83"/>
+      <c r="J21" s="82"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="86"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95">
         <f>'Pass Fail'!M7</f>
         <v>8.73</v>
       </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="98">
+      <c r="E22" s="95"/>
+      <c r="F22" s="96">
         <f>'Pass Fail'!N7</f>
         <v>8.9288888888888884</v>
       </c>
-      <c r="G22" s="99"/>
-      <c r="H22" s="90" t="s">
+      <c r="G22" s="97"/>
+      <c r="H22" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="91"/>
-      <c r="J22" s="92"/>
-    </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="105" t="str">
+      <c r="I22" s="92"/>
+      <c r="J22" s="93"/>
+    </row>
+    <row r="23" spans="2:10" ht="15" customHeight="1">
+      <c r="B23" s="84" t="str">
         <f>'Pass Fail'!D8</f>
         <v>SC01_Homepage_ST03_GetAllMasterData_DelayHead</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C23" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="87" t="s">
+      <c r="E23" s="80"/>
+      <c r="F23" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G23" s="89"/>
-      <c r="H23" s="87" t="s">
+      <c r="G23" s="82"/>
+      <c r="H23" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="88"/>
-      <c r="J23" s="89"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="106"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="103">
+      <c r="I23" s="83"/>
+      <c r="J23" s="82"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" s="85"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="95">
         <f>'Pass Fail'!K7</f>
         <v>31428</v>
       </c>
-      <c r="E24" s="103"/>
-      <c r="F24" s="96">
+      <c r="E24" s="95"/>
+      <c r="F24" s="89">
         <f>'Pass Fail'!L7</f>
         <v>32144</v>
       </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="90" t="s">
+      <c r="G24" s="90"/>
+      <c r="H24" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="91"/>
-      <c r="J24" s="92"/>
-    </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="106"/>
-      <c r="C25" s="101" t="s">
+      <c r="I24" s="92"/>
+      <c r="J24" s="93"/>
+    </row>
+    <row r="25" spans="2:10" ht="15" customHeight="1">
+      <c r="B25" s="85"/>
+      <c r="C25" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="87" t="s">
+      <c r="E25" s="80"/>
+      <c r="F25" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="89"/>
-      <c r="H25" s="87" t="s">
+      <c r="G25" s="82"/>
+      <c r="H25" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="88"/>
-      <c r="J25" s="89"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="107"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="103">
+      <c r="I25" s="83"/>
+      <c r="J25" s="82"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" s="86"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="95">
         <f>'Pass Fail'!M7</f>
         <v>8.73</v>
       </c>
-      <c r="E26" s="103"/>
-      <c r="F26" s="98">
+      <c r="E26" s="95"/>
+      <c r="F26" s="96">
         <f>'Pass Fail'!N7</f>
         <v>8.9288888888888884</v>
       </c>
-      <c r="G26" s="99"/>
-      <c r="H26" s="90" t="s">
+      <c r="G26" s="97"/>
+      <c r="H26" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="91"/>
-      <c r="J26" s="92"/>
-    </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="105" t="str">
+      <c r="I26" s="92"/>
+      <c r="J26" s="93"/>
+    </row>
+    <row r="27" spans="2:10" ht="15" customHeight="1">
+      <c r="B27" s="84" t="str">
         <f>'Pass Fail'!D9</f>
         <v>SC01_Homepage_ST04_GetAllMasterData_Training</v>
       </c>
-      <c r="C27" s="100" t="s">
+      <c r="C27" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="87" t="s">
+      <c r="E27" s="80"/>
+      <c r="F27" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="89"/>
-      <c r="H27" s="87" t="s">
+      <c r="G27" s="82"/>
+      <c r="H27" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="89"/>
-    </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="106"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="103">
+      <c r="I27" s="83"/>
+      <c r="J27" s="82"/>
+    </row>
+    <row r="28" spans="2:10" ht="15" customHeight="1">
+      <c r="B28" s="85"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="95">
         <f>'Pass Fail'!K7</f>
         <v>31428</v>
       </c>
-      <c r="E28" s="103"/>
-      <c r="F28" s="96">
+      <c r="E28" s="95"/>
+      <c r="F28" s="89">
         <f>'Pass Fail'!L7</f>
         <v>32144</v>
       </c>
-      <c r="G28" s="97"/>
-      <c r="H28" s="90" t="s">
+      <c r="G28" s="90"/>
+      <c r="H28" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
-    </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="106"/>
-      <c r="C29" s="101" t="s">
+      <c r="I28" s="92"/>
+      <c r="J28" s="93"/>
+    </row>
+    <row r="29" spans="2:10" ht="15" customHeight="1">
+      <c r="B29" s="85"/>
+      <c r="C29" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="87" t="s">
+      <c r="E29" s="80"/>
+      <c r="F29" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="89"/>
-      <c r="H29" s="87" t="s">
+      <c r="G29" s="82"/>
+      <c r="H29" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I29" s="88"/>
-      <c r="J29" s="89"/>
-    </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="107"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="103">
+      <c r="I29" s="83"/>
+      <c r="J29" s="82"/>
+    </row>
+    <row r="30" spans="2:10" ht="15" customHeight="1">
+      <c r="B30" s="86"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="95">
         <f>'Pass Fail'!M7</f>
         <v>8.73</v>
       </c>
-      <c r="E30" s="103"/>
-      <c r="F30" s="98">
+      <c r="E30" s="95"/>
+      <c r="F30" s="96">
         <f>'Pass Fail'!N7</f>
         <v>8.9288888888888884</v>
       </c>
-      <c r="G30" s="99"/>
-      <c r="H30" s="90" t="s">
+      <c r="G30" s="97"/>
+      <c r="H30" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I30" s="91"/>
-      <c r="J30" s="92"/>
-    </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="105" t="str">
+      <c r="I30" s="92"/>
+      <c r="J30" s="93"/>
+    </row>
+    <row r="31" spans="2:10" ht="15" customHeight="1">
+      <c r="B31" s="84" t="str">
         <f>'Pass Fail'!D10</f>
         <v>SC01_Homepage_ST05_GetAllMasterData_FlightType</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="102"/>
-      <c r="F31" s="87" t="s">
+      <c r="E31" s="80"/>
+      <c r="F31" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="89"/>
-      <c r="H31" s="87" t="s">
+      <c r="G31" s="82"/>
+      <c r="H31" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="88"/>
-      <c r="J31" s="89"/>
-    </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="106"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="103">
+      <c r="I31" s="83"/>
+      <c r="J31" s="82"/>
+    </row>
+    <row r="32" spans="2:10" ht="15" customHeight="1">
+      <c r="B32" s="85"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="95">
         <f>'Pass Fail'!K7</f>
         <v>31428</v>
       </c>
-      <c r="E32" s="103"/>
-      <c r="F32" s="96">
+      <c r="E32" s="95"/>
+      <c r="F32" s="89">
         <f>'Pass Fail'!L7</f>
         <v>32144</v>
       </c>
-      <c r="G32" s="97"/>
-      <c r="H32" s="90" t="s">
+      <c r="G32" s="90"/>
+      <c r="H32" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="91"/>
-      <c r="J32" s="92"/>
-    </row>
-    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="106"/>
-      <c r="C33" s="101" t="s">
+      <c r="I32" s="92"/>
+      <c r="J32" s="93"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" customHeight="1">
+      <c r="B33" s="85"/>
+      <c r="C33" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="102"/>
-      <c r="F33" s="87" t="s">
+      <c r="E33" s="80"/>
+      <c r="F33" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="89"/>
-      <c r="H33" s="87" t="s">
+      <c r="G33" s="82"/>
+      <c r="H33" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I33" s="88"/>
-      <c r="J33" s="89"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="107"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="103">
+      <c r="I33" s="83"/>
+      <c r="J33" s="82"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="86"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="95">
         <f>'Pass Fail'!M7</f>
         <v>8.73</v>
       </c>
-      <c r="E34" s="103"/>
-      <c r="F34" s="98">
+      <c r="E34" s="95"/>
+      <c r="F34" s="96">
         <f>'Pass Fail'!N7</f>
         <v>8.9288888888888884</v>
       </c>
-      <c r="G34" s="99"/>
-      <c r="H34" s="90" t="s">
+      <c r="G34" s="97"/>
+      <c r="H34" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I34" s="91"/>
-      <c r="J34" s="92"/>
-    </row>
-    <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="105" t="str">
+      <c r="I34" s="92"/>
+      <c r="J34" s="93"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" customHeight="1">
+      <c r="B35" s="84" t="str">
         <f>'Pass Fail'!D11</f>
         <v>SC01_Homepage_ST06_GetAllMasterData_RemarkType</v>
       </c>
-      <c r="C35" s="100" t="s">
+      <c r="C35" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="102" t="s">
+      <c r="D35" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="102"/>
-      <c r="F35" s="87" t="s">
+      <c r="E35" s="80"/>
+      <c r="F35" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G35" s="89"/>
-      <c r="H35" s="87" t="s">
+      <c r="G35" s="82"/>
+      <c r="H35" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I35" s="88"/>
-      <c r="J35" s="89"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="106"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="103">
+      <c r="I35" s="83"/>
+      <c r="J35" s="82"/>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="85"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="95">
         <f>'Pass Fail'!K7</f>
         <v>31428</v>
       </c>
-      <c r="E36" s="103"/>
-      <c r="F36" s="96">
+      <c r="E36" s="95"/>
+      <c r="F36" s="89">
         <f>'Pass Fail'!L7</f>
         <v>32144</v>
       </c>
-      <c r="G36" s="97"/>
-      <c r="H36" s="90" t="s">
+      <c r="G36" s="90"/>
+      <c r="H36" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="91"/>
-      <c r="J36" s="92"/>
-    </row>
-    <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="106"/>
-      <c r="C37" s="101" t="s">
+      <c r="I36" s="92"/>
+      <c r="J36" s="93"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" customHeight="1">
+      <c r="B37" s="85"/>
+      <c r="C37" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="102" t="s">
+      <c r="D37" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="102"/>
-      <c r="F37" s="87" t="s">
+      <c r="E37" s="80"/>
+      <c r="F37" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G37" s="89"/>
-      <c r="H37" s="87" t="s">
+      <c r="G37" s="82"/>
+      <c r="H37" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="88"/>
-      <c r="J37" s="89"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="107"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="103">
+      <c r="I37" s="83"/>
+      <c r="J37" s="82"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="86"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="95">
         <f>'Pass Fail'!M7</f>
         <v>8.73</v>
       </c>
-      <c r="E38" s="103"/>
-      <c r="F38" s="98">
+      <c r="E38" s="95"/>
+      <c r="F38" s="96">
         <f>'Pass Fail'!N7</f>
         <v>8.9288888888888884</v>
       </c>
-      <c r="G38" s="99"/>
-      <c r="H38" s="90" t="s">
+      <c r="G38" s="97"/>
+      <c r="H38" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="91"/>
-      <c r="J38" s="92"/>
-    </row>
-    <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="105" t="str">
+      <c r="I38" s="92"/>
+      <c r="J38" s="93"/>
+    </row>
+    <row r="39" spans="2:10" ht="15" customHeight="1">
+      <c r="B39" s="84" t="str">
         <f>'Pass Fail'!D12</f>
         <v>SC01_Homepage_ST07_GetAllMasterData_Aircraft</v>
       </c>
-      <c r="C39" s="100" t="s">
+      <c r="C39" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="102"/>
-      <c r="F39" s="87" t="s">
+      <c r="E39" s="80"/>
+      <c r="F39" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G39" s="89"/>
-      <c r="H39" s="87" t="s">
+      <c r="G39" s="82"/>
+      <c r="H39" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="88"/>
-      <c r="J39" s="89"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="106"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="104">
+      <c r="I39" s="83"/>
+      <c r="J39" s="82"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="85"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="88">
         <f>'Pass Fail'!K7</f>
         <v>31428</v>
       </c>
-      <c r="E40" s="104"/>
-      <c r="F40" s="96">
+      <c r="E40" s="88"/>
+      <c r="F40" s="89">
         <f>'Pass Fail'!L7</f>
         <v>32144</v>
       </c>
-      <c r="G40" s="97"/>
-      <c r="H40" s="90" t="s">
+      <c r="G40" s="90"/>
+      <c r="H40" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I40" s="91"/>
-      <c r="J40" s="92"/>
-    </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="106"/>
-      <c r="C41" s="101" t="s">
+      <c r="I40" s="92"/>
+      <c r="J40" s="93"/>
+    </row>
+    <row r="41" spans="2:10" ht="15" customHeight="1">
+      <c r="B41" s="85"/>
+      <c r="C41" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="102"/>
-      <c r="F41" s="87" t="s">
+      <c r="E41" s="80"/>
+      <c r="F41" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G41" s="89"/>
-      <c r="H41" s="87" t="s">
+      <c r="G41" s="82"/>
+      <c r="H41" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I41" s="88"/>
-      <c r="J41" s="89"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="107"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="103">
+      <c r="I41" s="83"/>
+      <c r="J41" s="82"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="86"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="95">
         <f>'Pass Fail'!M7</f>
         <v>8.73</v>
       </c>
-      <c r="E42" s="103"/>
-      <c r="F42" s="98">
+      <c r="E42" s="95"/>
+      <c r="F42" s="96">
         <f>'Pass Fail'!N7</f>
         <v>8.9288888888888884</v>
       </c>
-      <c r="G42" s="99"/>
-      <c r="H42" s="90" t="s">
+      <c r="G42" s="97"/>
+      <c r="H42" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I42" s="91"/>
-      <c r="J42" s="92"/>
-    </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="105" t="str">
+      <c r="I42" s="92"/>
+      <c r="J42" s="93"/>
+    </row>
+    <row r="43" spans="2:10" ht="15" customHeight="1">
+      <c r="B43" s="84" t="str">
         <f>'Pass Fail'!D13</f>
         <v>SC01_Homepage_ST08_GetAllMasterData_Airport</v>
       </c>
-      <c r="C43" s="100" t="s">
+      <c r="C43" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="102" t="s">
+      <c r="D43" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="102"/>
-      <c r="F43" s="87" t="s">
+      <c r="E43" s="80"/>
+      <c r="F43" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G43" s="89"/>
-      <c r="H43" s="87" t="s">
+      <c r="G43" s="82"/>
+      <c r="H43" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I43" s="88"/>
-      <c r="J43" s="89"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="106"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="103">
+      <c r="I43" s="83"/>
+      <c r="J43" s="82"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="85"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="95">
         <f>'Pass Fail'!K7</f>
         <v>31428</v>
       </c>
-      <c r="E44" s="103"/>
-      <c r="F44" s="96">
+      <c r="E44" s="95"/>
+      <c r="F44" s="89">
         <f>'Pass Fail'!L7</f>
         <v>32144</v>
       </c>
-      <c r="G44" s="97"/>
-      <c r="H44" s="90" t="s">
+      <c r="G44" s="90"/>
+      <c r="H44" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I44" s="91"/>
-      <c r="J44" s="92"/>
-    </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="106"/>
-      <c r="C45" s="101" t="s">
+      <c r="I44" s="92"/>
+      <c r="J44" s="93"/>
+    </row>
+    <row r="45" spans="2:10" ht="15" customHeight="1">
+      <c r="B45" s="85"/>
+      <c r="C45" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="102" t="s">
+      <c r="D45" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="102"/>
-      <c r="F45" s="87" t="s">
+      <c r="E45" s="80"/>
+      <c r="F45" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G45" s="89"/>
-      <c r="H45" s="87" t="s">
+      <c r="G45" s="82"/>
+      <c r="H45" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="88"/>
-      <c r="J45" s="89"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="107"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="103">
+      <c r="I45" s="83"/>
+      <c r="J45" s="82"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="86"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="95">
         <f>'Pass Fail'!M7</f>
         <v>8.73</v>
       </c>
-      <c r="E46" s="103"/>
-      <c r="F46" s="98">
+      <c r="E46" s="95"/>
+      <c r="F46" s="96">
         <f>'Pass Fail'!N7</f>
         <v>8.9288888888888884</v>
       </c>
-      <c r="G46" s="99"/>
-      <c r="H46" s="90" t="s">
+      <c r="G46" s="97"/>
+      <c r="H46" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I46" s="91"/>
-      <c r="J46" s="92"/>
-    </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="105" t="str">
+      <c r="I46" s="92"/>
+      <c r="J46" s="93"/>
+    </row>
+    <row r="47" spans="2:10" ht="15" customHeight="1">
+      <c r="B47" s="84" t="str">
         <f>'Pass Fail'!D14</f>
         <v>SC01_Homepage_T09_GetConfigProperties</v>
       </c>
-      <c r="C47" s="100" t="s">
+      <c r="C47" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="102" t="s">
+      <c r="D47" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="102"/>
-      <c r="F47" s="87" t="s">
+      <c r="E47" s="80"/>
+      <c r="F47" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G47" s="89"/>
-      <c r="H47" s="87" t="s">
+      <c r="G47" s="82"/>
+      <c r="H47" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I47" s="88"/>
-      <c r="J47" s="89"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="106"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="103">
+      <c r="I47" s="83"/>
+      <c r="J47" s="82"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="85"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="95">
         <f>'Pass Fail'!K14</f>
         <v>31428</v>
       </c>
-      <c r="E48" s="103"/>
-      <c r="F48" s="96">
+      <c r="E48" s="95"/>
+      <c r="F48" s="89">
         <f>'Pass Fail'!L14</f>
         <v>32072</v>
       </c>
-      <c r="G48" s="97"/>
-      <c r="H48" s="90" t="s">
+      <c r="G48" s="90"/>
+      <c r="H48" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I48" s="91"/>
-      <c r="J48" s="92"/>
-    </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="106"/>
-      <c r="C49" s="101" t="s">
+      <c r="I48" s="92"/>
+      <c r="J48" s="93"/>
+    </row>
+    <row r="49" spans="2:10" ht="15" customHeight="1">
+      <c r="B49" s="85"/>
+      <c r="C49" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="102" t="s">
+      <c r="D49" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E49" s="102"/>
-      <c r="F49" s="87" t="s">
+      <c r="E49" s="80"/>
+      <c r="F49" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G49" s="89"/>
-      <c r="H49" s="87" t="s">
+      <c r="G49" s="82"/>
+      <c r="H49" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="88"/>
-      <c r="J49" s="89"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="107"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="103">
+      <c r="I49" s="83"/>
+      <c r="J49" s="82"/>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" s="86"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="95">
         <f>'Pass Fail'!M14</f>
         <v>8.73</v>
       </c>
-      <c r="E50" s="103"/>
-      <c r="F50" s="98">
+      <c r="E50" s="95"/>
+      <c r="F50" s="96">
         <f>'Pass Fail'!N14</f>
         <v>8.9088888888888889</v>
       </c>
-      <c r="G50" s="99"/>
-      <c r="H50" s="90" t="s">
+      <c r="G50" s="97"/>
+      <c r="H50" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I50" s="91"/>
-      <c r="J50" s="92"/>
-    </row>
-    <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="105" t="str">
+      <c r="I50" s="92"/>
+      <c r="J50" s="93"/>
+    </row>
+    <row r="51" spans="2:10" ht="15" customHeight="1">
+      <c r="B51" s="84" t="str">
         <f>'Pass Fail'!D15</f>
         <v>SC01_Homepage_T10_GetFlights</v>
       </c>
-      <c r="C51" s="100" t="s">
+      <c r="C51" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="102" t="s">
+      <c r="D51" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="102"/>
-      <c r="F51" s="87" t="s">
+      <c r="E51" s="80"/>
+      <c r="F51" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="89"/>
-      <c r="H51" s="87" t="s">
+      <c r="G51" s="82"/>
+      <c r="H51" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="88"/>
-      <c r="J51" s="89"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="106"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="103">
+      <c r="I51" s="83"/>
+      <c r="J51" s="82"/>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" s="85"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="95">
         <f>'Pass Fail'!K15</f>
         <v>31428</v>
       </c>
-      <c r="E52" s="103"/>
-      <c r="F52" s="96">
+      <c r="E52" s="95"/>
+      <c r="F52" s="89">
         <f>'Pass Fail'!L15</f>
         <v>31996</v>
       </c>
-      <c r="G52" s="97"/>
-      <c r="H52" s="90" t="s">
+      <c r="G52" s="90"/>
+      <c r="H52" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I52" s="91"/>
-      <c r="J52" s="92"/>
-    </row>
-    <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="106"/>
-      <c r="C53" s="101" t="s">
+      <c r="I52" s="92"/>
+      <c r="J52" s="93"/>
+    </row>
+    <row r="53" spans="2:10" ht="15" customHeight="1">
+      <c r="B53" s="85"/>
+      <c r="C53" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="102" t="s">
+      <c r="D53" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="102"/>
-      <c r="F53" s="87" t="s">
+      <c r="E53" s="80"/>
+      <c r="F53" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G53" s="89"/>
-      <c r="H53" s="87" t="s">
+      <c r="G53" s="82"/>
+      <c r="H53" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="88"/>
-      <c r="J53" s="89"/>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="107"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="103">
+      <c r="I53" s="83"/>
+      <c r="J53" s="82"/>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" s="86"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="95">
         <f>'Pass Fail'!M15</f>
         <v>8.73</v>
       </c>
-      <c r="E54" s="103"/>
-      <c r="F54" s="98">
+      <c r="E54" s="95"/>
+      <c r="F54" s="96">
         <f>'Pass Fail'!N15</f>
         <v>8.887777777777778</v>
       </c>
-      <c r="G54" s="99"/>
-      <c r="H54" s="90" t="s">
+      <c r="G54" s="97"/>
+      <c r="H54" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I54" s="91"/>
-      <c r="J54" s="92"/>
-    </row>
-    <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="105" t="str">
+      <c r="I54" s="92"/>
+      <c r="J54" s="93"/>
+    </row>
+    <row r="55" spans="2:10" ht="15" customHeight="1">
+      <c r="B55" s="84" t="str">
         <f>'Pass Fail'!D16</f>
         <v>SC02_VerifyScreen_T01_UploadAttachment</v>
       </c>
-      <c r="C55" s="100" t="s">
+      <c r="C55" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="102" t="s">
+      <c r="D55" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E55" s="102"/>
-      <c r="F55" s="87" t="s">
+      <c r="E55" s="80"/>
+      <c r="F55" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G55" s="89"/>
-      <c r="H55" s="87" t="s">
+      <c r="G55" s="82"/>
+      <c r="H55" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I55" s="88"/>
-      <c r="J55" s="89"/>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="106"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="103">
+      <c r="I55" s="83"/>
+      <c r="J55" s="82"/>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" s="85"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="95">
         <f>'Pass Fail'!K16</f>
         <v>31428</v>
       </c>
-      <c r="E56" s="103"/>
-      <c r="F56" s="96">
+      <c r="E56" s="95"/>
+      <c r="F56" s="89">
         <f>'Pass Fail'!L16</f>
         <v>31727.87484</v>
       </c>
-      <c r="G56" s="97"/>
-      <c r="H56" s="90" t="s">
+      <c r="G56" s="90"/>
+      <c r="H56" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I56" s="91"/>
-      <c r="J56" s="92"/>
-    </row>
-    <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="106"/>
-      <c r="C57" s="101" t="s">
+      <c r="I56" s="92"/>
+      <c r="J56" s="93"/>
+    </row>
+    <row r="57" spans="2:10" ht="15" customHeight="1">
+      <c r="B57" s="85"/>
+      <c r="C57" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="102" t="s">
+      <c r="D57" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E57" s="102"/>
-      <c r="F57" s="87" t="s">
+      <c r="E57" s="80"/>
+      <c r="F57" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G57" s="89"/>
-      <c r="H57" s="87" t="s">
+      <c r="G57" s="82"/>
+      <c r="H57" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I57" s="88"/>
-      <c r="J57" s="89"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="107"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="103">
+      <c r="I57" s="83"/>
+      <c r="J57" s="82"/>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" s="86"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="95">
         <f>'Pass Fail'!M16</f>
         <v>8.73</v>
       </c>
-      <c r="E58" s="103"/>
-      <c r="F58" s="98">
+      <c r="E58" s="95"/>
+      <c r="F58" s="96">
         <f>'Pass Fail'!N16</f>
         <v>8.813298566666667</v>
       </c>
-      <c r="G58" s="99"/>
-      <c r="H58" s="90" t="s">
+      <c r="G58" s="97"/>
+      <c r="H58" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I58" s="91"/>
-      <c r="J58" s="92"/>
-    </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="105" t="str">
+      <c r="I58" s="92"/>
+      <c r="J58" s="93"/>
+    </row>
+    <row r="59" spans="2:10" ht="15" customHeight="1">
+      <c r="B59" s="84" t="str">
         <f>'Pass Fail'!D17</f>
         <v>SC02_VerifyScreen_T02_GetAttachment</v>
       </c>
-      <c r="C59" s="100" t="s">
+      <c r="C59" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="102" t="s">
+      <c r="D59" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E59" s="102"/>
-      <c r="F59" s="87" t="s">
+      <c r="E59" s="80"/>
+      <c r="F59" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G59" s="89"/>
-      <c r="H59" s="87" t="s">
+      <c r="G59" s="82"/>
+      <c r="H59" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I59" s="88"/>
-      <c r="J59" s="89"/>
-    </row>
-    <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="106"/>
-      <c r="C60" s="100"/>
-      <c r="D60" s="103">
+      <c r="I59" s="83"/>
+      <c r="J59" s="82"/>
+    </row>
+    <row r="60" spans="2:10" ht="15" customHeight="1">
+      <c r="B60" s="85"/>
+      <c r="C60" s="87"/>
+      <c r="D60" s="95">
         <f>'Pass Fail'!K17</f>
         <v>31428</v>
       </c>
-      <c r="E60" s="103"/>
-      <c r="F60" s="96">
+      <c r="E60" s="95"/>
+      <c r="F60" s="89">
         <f>'Pass Fail'!L17</f>
         <v>12311.85656</v>
       </c>
-      <c r="G60" s="97"/>
-      <c r="H60" s="93" t="s">
+      <c r="G60" s="90"/>
+      <c r="H60" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="I60" s="94"/>
-      <c r="J60" s="95"/>
-    </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="106"/>
-      <c r="C61" s="101" t="s">
+      <c r="I60" s="122"/>
+      <c r="J60" s="123"/>
+    </row>
+    <row r="61" spans="2:10" ht="15" customHeight="1">
+      <c r="B61" s="85"/>
+      <c r="C61" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D61" s="102" t="s">
+      <c r="D61" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="102"/>
-      <c r="F61" s="87" t="s">
+      <c r="E61" s="80"/>
+      <c r="F61" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G61" s="89"/>
-      <c r="H61" s="87" t="s">
+      <c r="G61" s="82"/>
+      <c r="H61" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I61" s="88"/>
-      <c r="J61" s="89"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="107"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="103">
+      <c r="I61" s="83"/>
+      <c r="J61" s="82"/>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" s="86"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="95">
         <f>'Pass Fail'!M17</f>
         <v>8.73</v>
       </c>
-      <c r="E62" s="103"/>
-      <c r="F62" s="98">
+      <c r="E62" s="95"/>
+      <c r="F62" s="96">
         <f>'Pass Fail'!N17</f>
         <v>3.4199601555555557</v>
       </c>
-      <c r="G62" s="99"/>
-      <c r="H62" s="93" t="s">
+      <c r="G62" s="97"/>
+      <c r="H62" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="I62" s="94"/>
-      <c r="J62" s="95"/>
-    </row>
-    <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="105" t="str">
+      <c r="I62" s="122"/>
+      <c r="J62" s="123"/>
+    </row>
+    <row r="63" spans="2:10" ht="15" customHeight="1">
+      <c r="B63" s="84" t="str">
         <f>'Pass Fail'!D18</f>
         <v>SC02_VerifyScreen_T03_GetAssignedCrews</v>
       </c>
-      <c r="C63" s="100" t="s">
+      <c r="C63" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D63" s="102" t="s">
+      <c r="D63" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E63" s="102"/>
-      <c r="F63" s="87" t="s">
+      <c r="E63" s="80"/>
+      <c r="F63" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G63" s="89"/>
-      <c r="H63" s="87" t="s">
+      <c r="G63" s="82"/>
+      <c r="H63" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I63" s="88"/>
-      <c r="J63" s="89"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="106"/>
-      <c r="C64" s="100"/>
-      <c r="D64" s="103">
+      <c r="I63" s="83"/>
+      <c r="J63" s="82"/>
+    </row>
+    <row r="64" spans="2:10" ht="18">
+      <c r="B64" s="85"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="95">
         <f>'Pass Fail'!K18</f>
         <v>31428</v>
       </c>
-      <c r="E64" s="103"/>
-      <c r="F64" s="96">
+      <c r="E64" s="95"/>
+      <c r="F64" s="174">
         <f>'Pass Fail'!L18</f>
         <v>31732</v>
       </c>
-      <c r="G64" s="97"/>
-      <c r="H64" s="90" t="s">
+      <c r="G64" s="175"/>
+      <c r="H64" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I64" s="91"/>
-      <c r="J64" s="92"/>
-    </row>
-    <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="106"/>
-      <c r="C65" s="101" t="s">
+      <c r="I64" s="92"/>
+      <c r="J64" s="93"/>
+    </row>
+    <row r="65" spans="2:10" ht="15" customHeight="1">
+      <c r="B65" s="85"/>
+      <c r="C65" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="102" t="s">
+      <c r="D65" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E65" s="102"/>
-      <c r="F65" s="87" t="s">
+      <c r="E65" s="80"/>
+      <c r="F65" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G65" s="89"/>
-      <c r="H65" s="87" t="s">
+      <c r="G65" s="82"/>
+      <c r="H65" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I65" s="88"/>
-      <c r="J65" s="89"/>
-    </row>
-    <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="107"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="103">
+      <c r="I65" s="83"/>
+      <c r="J65" s="82"/>
+    </row>
+    <row r="66" spans="2:10" ht="15" customHeight="1">
+      <c r="B66" s="86"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="95">
         <f>'Pass Fail'!M18</f>
         <v>8.73</v>
       </c>
-      <c r="E66" s="103"/>
-      <c r="F66" s="98">
+      <c r="E66" s="95"/>
+      <c r="F66" s="96">
         <f>'Pass Fail'!N18</f>
         <v>8.8144444444444439</v>
       </c>
-      <c r="G66" s="99"/>
-      <c r="H66" s="90" t="s">
+      <c r="G66" s="97"/>
+      <c r="H66" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I66" s="91"/>
-      <c r="J66" s="92"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="105" t="str">
+      <c r="I66" s="92"/>
+      <c r="J66" s="93"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="84" t="str">
         <f>'Pass Fail'!D19</f>
         <v>SC02_VerifyScreen_T04_GetAssignedCrewsByHashId</v>
       </c>
-      <c r="C67" s="100" t="s">
+      <c r="C67" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="102" t="s">
+      <c r="D67" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E67" s="102"/>
-      <c r="F67" s="87" t="s">
+      <c r="E67" s="80"/>
+      <c r="F67" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="89"/>
-      <c r="H67" s="87" t="s">
+      <c r="G67" s="82"/>
+      <c r="H67" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I67" s="88"/>
-      <c r="J67" s="89"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B68" s="106"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="103">
+      <c r="I67" s="83"/>
+      <c r="J67" s="82"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="85"/>
+      <c r="C68" s="87"/>
+      <c r="D68" s="95">
         <f>'Pass Fail'!K19</f>
         <v>31428</v>
       </c>
-      <c r="E68" s="103"/>
-      <c r="F68" s="96">
+      <c r="E68" s="95"/>
+      <c r="F68" s="89">
         <f>'Pass Fail'!L19</f>
         <v>31732</v>
       </c>
-      <c r="G68" s="97"/>
-      <c r="H68" s="90" t="s">
+      <c r="G68" s="90"/>
+      <c r="H68" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I68" s="91"/>
-      <c r="J68" s="92"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B69" s="106"/>
-      <c r="C69" s="101" t="s">
+      <c r="I68" s="92"/>
+      <c r="J68" s="93"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="85"/>
+      <c r="C69" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D69" s="102" t="s">
+      <c r="D69" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="102"/>
-      <c r="F69" s="87" t="s">
+      <c r="E69" s="80"/>
+      <c r="F69" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G69" s="89"/>
-      <c r="H69" s="87" t="s">
+      <c r="G69" s="82"/>
+      <c r="H69" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I69" s="88"/>
-      <c r="J69" s="89"/>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="107"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="103">
+      <c r="I69" s="83"/>
+      <c r="J69" s="82"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="86"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="95">
         <f>'Pass Fail'!M19</f>
         <v>8.73</v>
       </c>
-      <c r="E70" s="103"/>
-      <c r="F70" s="98">
+      <c r="E70" s="95"/>
+      <c r="F70" s="96">
         <f>'Pass Fail'!N19</f>
         <v>8.8144444444444439</v>
       </c>
-      <c r="G70" s="99"/>
-      <c r="H70" s="90" t="s">
+      <c r="G70" s="97"/>
+      <c r="H70" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I70" s="91"/>
-      <c r="J70" s="92"/>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="105" t="str">
+      <c r="I70" s="92"/>
+      <c r="J70" s="93"/>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="84" t="str">
         <f>'Pass Fail'!D20</f>
         <v>SC02_VerifyScreen_T05_GenerateCrewShift</v>
       </c>
-      <c r="C71" s="100" t="s">
+      <c r="C71" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="102" t="s">
+      <c r="D71" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E71" s="102"/>
-      <c r="F71" s="87" t="s">
+      <c r="E71" s="80"/>
+      <c r="F71" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G71" s="89"/>
-      <c r="H71" s="87" t="s">
+      <c r="G71" s="82"/>
+      <c r="H71" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I71" s="88"/>
-      <c r="J71" s="89"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="106"/>
-      <c r="C72" s="100"/>
-      <c r="D72" s="103">
+      <c r="I71" s="83"/>
+      <c r="J71" s="82"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="85"/>
+      <c r="C72" s="87"/>
+      <c r="D72" s="95">
         <f>'Pass Fail'!K20</f>
         <v>31428</v>
       </c>
-      <c r="E72" s="103"/>
-      <c r="F72" s="96">
+      <c r="E72" s="95"/>
+      <c r="F72" s="89">
         <f>'Pass Fail'!L20</f>
         <v>31724</v>
       </c>
-      <c r="G72" s="97"/>
-      <c r="H72" s="90" t="s">
+      <c r="G72" s="90"/>
+      <c r="H72" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I72" s="91"/>
-      <c r="J72" s="92"/>
-    </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B73" s="106"/>
-      <c r="C73" s="101" t="s">
+      <c r="I72" s="92"/>
+      <c r="J72" s="93"/>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" s="85"/>
+      <c r="C73" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D73" s="102" t="s">
+      <c r="D73" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="102"/>
-      <c r="F73" s="87" t="s">
+      <c r="E73" s="80"/>
+      <c r="F73" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G73" s="89"/>
-      <c r="H73" s="87" t="s">
+      <c r="G73" s="82"/>
+      <c r="H73" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I73" s="88"/>
-      <c r="J73" s="89"/>
-    </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B74" s="107"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="103">
+      <c r="I73" s="83"/>
+      <c r="J73" s="82"/>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" s="86"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="95">
         <f>'Pass Fail'!M20</f>
         <v>8.73</v>
       </c>
-      <c r="E74" s="103"/>
-      <c r="F74" s="98">
+      <c r="E74" s="95"/>
+      <c r="F74" s="96">
         <f>'Pass Fail'!N20</f>
         <v>8.8122222222222231</v>
       </c>
-      <c r="G74" s="99"/>
-      <c r="H74" s="90" t="s">
+      <c r="G74" s="97"/>
+      <c r="H74" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I74" s="91"/>
-      <c r="J74" s="92"/>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="105" t="str">
+      <c r="I74" s="92"/>
+      <c r="J74" s="93"/>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="84" t="str">
         <f>'Pass Fail'!D21</f>
         <v>SC02_VerifyScreen_T06_DeleteAttachment</v>
       </c>
-      <c r="C75" s="100" t="s">
+      <c r="C75" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="102" t="s">
+      <c r="D75" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E75" s="102"/>
-      <c r="F75" s="87" t="s">
+      <c r="E75" s="80"/>
+      <c r="F75" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G75" s="89"/>
-      <c r="H75" s="87" t="s">
+      <c r="G75" s="82"/>
+      <c r="H75" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I75" s="88"/>
-      <c r="J75" s="89"/>
-    </row>
-    <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="106"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="103">
+      <c r="I75" s="83"/>
+      <c r="J75" s="82"/>
+    </row>
+    <row r="76" spans="2:10" ht="15" customHeight="1">
+      <c r="B76" s="85"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="95">
         <f>'Pass Fail'!K21</f>
         <v>31428</v>
       </c>
-      <c r="E76" s="103"/>
-      <c r="F76" s="96">
+      <c r="E76" s="95"/>
+      <c r="F76" s="89">
         <f>'Pass Fail'!L21</f>
         <v>23715.993600000002</v>
       </c>
-      <c r="G76" s="97"/>
-      <c r="H76" s="93" t="s">
+      <c r="G76" s="90"/>
+      <c r="H76" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="I76" s="94"/>
-      <c r="J76" s="95"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="106"/>
-      <c r="C77" s="101" t="s">
+      <c r="I76" s="122"/>
+      <c r="J76" s="123"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="85"/>
+      <c r="C77" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D77" s="102" t="s">
+      <c r="D77" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E77" s="102"/>
-      <c r="F77" s="87" t="s">
+      <c r="E77" s="80"/>
+      <c r="F77" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G77" s="89"/>
-      <c r="H77" s="87" t="s">
+      <c r="G77" s="82"/>
+      <c r="H77" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I77" s="88"/>
-      <c r="J77" s="89"/>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="107"/>
-      <c r="C78" s="101"/>
-      <c r="D78" s="103">
+      <c r="I77" s="83"/>
+      <c r="J77" s="82"/>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="86"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="95">
         <f>'Pass Fail'!M21</f>
         <v>8.73</v>
       </c>
-      <c r="E78" s="103"/>
-      <c r="F78" s="98">
+      <c r="E78" s="95"/>
+      <c r="F78" s="96">
         <f>'Pass Fail'!N21</f>
         <v>6.5877760000000007</v>
       </c>
-      <c r="G78" s="99"/>
-      <c r="H78" s="93" t="s">
+      <c r="G78" s="97"/>
+      <c r="H78" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="I78" s="94"/>
-      <c r="J78" s="95"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="84" t="str">
+      <c r="I78" s="122"/>
+      <c r="J78" s="123"/>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" s="104" t="str">
         <f>'Pass Fail'!D22</f>
         <v>SC03_PreviewScreen_T01_SavePSR</v>
       </c>
-      <c r="C79" s="100" t="s">
+      <c r="C79" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D79" s="102" t="s">
+      <c r="D79" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E79" s="102"/>
-      <c r="F79" s="87" t="s">
+      <c r="E79" s="80"/>
+      <c r="F79" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G79" s="89"/>
-      <c r="H79" s="87" t="s">
+      <c r="G79" s="82"/>
+      <c r="H79" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I79" s="88"/>
-      <c r="J79" s="89"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="85"/>
-      <c r="C80" s="100"/>
-      <c r="D80" s="103">
+      <c r="I79" s="83"/>
+      <c r="J79" s="82"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="128"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="95">
         <f>'Pass Fail'!K22</f>
         <v>31428</v>
       </c>
-      <c r="E80" s="103"/>
-      <c r="F80" s="96">
+      <c r="E80" s="95"/>
+      <c r="F80" s="89">
         <f>'Pass Fail'!L22</f>
         <v>31668</v>
       </c>
-      <c r="G80" s="97"/>
-      <c r="H80" s="90" t="s">
+      <c r="G80" s="90"/>
+      <c r="H80" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I80" s="91"/>
-      <c r="J80" s="92"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="85"/>
-      <c r="C81" s="101" t="s">
+      <c r="I80" s="92"/>
+      <c r="J80" s="93"/>
+    </row>
+    <row r="81" spans="2:10">
+      <c r="B81" s="128"/>
+      <c r="C81" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D81" s="102" t="s">
+      <c r="D81" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E81" s="102"/>
-      <c r="F81" s="87" t="s">
+      <c r="E81" s="80"/>
+      <c r="F81" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G81" s="89"/>
-      <c r="H81" s="87" t="s">
+      <c r="G81" s="82"/>
+      <c r="H81" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I81" s="88"/>
-      <c r="J81" s="89"/>
-    </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B82" s="86"/>
-      <c r="C82" s="101"/>
-      <c r="D82" s="103">
+      <c r="I81" s="83"/>
+      <c r="J81" s="82"/>
+    </row>
+    <row r="82" spans="2:10">
+      <c r="B82" s="106"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="95">
         <f>'Pass Fail'!M22</f>
         <v>8.73</v>
       </c>
-      <c r="E82" s="103"/>
-      <c r="F82" s="98">
+      <c r="E82" s="95"/>
+      <c r="F82" s="96">
         <f>'Pass Fail'!N22</f>
         <v>8.7966666666666669</v>
       </c>
-      <c r="G82" s="99"/>
-      <c r="H82" s="90" t="s">
+      <c r="G82" s="97"/>
+      <c r="H82" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I82" s="91"/>
-      <c r="J82" s="92"/>
-    </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B83" s="105" t="str">
+      <c r="I82" s="92"/>
+      <c r="J82" s="93"/>
+    </row>
+    <row r="83" spans="2:10">
+      <c r="B83" s="84" t="str">
         <f>'Pass Fail'!D23</f>
         <v>SC04_SubmitScreen_T01_GetPSR_Reports</v>
       </c>
-      <c r="C83" s="100" t="s">
+      <c r="C83" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D83" s="102" t="s">
+      <c r="D83" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E83" s="102"/>
-      <c r="F83" s="87" t="s">
+      <c r="E83" s="80"/>
+      <c r="F83" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G83" s="89"/>
-      <c r="H83" s="87" t="s">
+      <c r="G83" s="82"/>
+      <c r="H83" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I83" s="88"/>
-      <c r="J83" s="89"/>
-    </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B84" s="106"/>
-      <c r="C84" s="100"/>
-      <c r="D84" s="104">
+      <c r="I83" s="83"/>
+      <c r="J83" s="82"/>
+    </row>
+    <row r="84" spans="2:10">
+      <c r="B84" s="85"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="88">
         <f>'Pass Fail'!K23</f>
         <v>31428</v>
       </c>
-      <c r="E84" s="104"/>
-      <c r="F84" s="96">
+      <c r="E84" s="88"/>
+      <c r="F84" s="89">
         <f>'Pass Fail'!L23</f>
         <v>31608</v>
       </c>
-      <c r="G84" s="97"/>
-      <c r="H84" s="90" t="s">
+      <c r="G84" s="90"/>
+      <c r="H84" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I84" s="91"/>
-      <c r="J84" s="92"/>
-    </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B85" s="106"/>
-      <c r="C85" s="101" t="s">
+      <c r="I84" s="92"/>
+      <c r="J84" s="93"/>
+    </row>
+    <row r="85" spans="2:10">
+      <c r="B85" s="85"/>
+      <c r="C85" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D85" s="102" t="s">
+      <c r="D85" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E85" s="102"/>
-      <c r="F85" s="87" t="s">
+      <c r="E85" s="80"/>
+      <c r="F85" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G85" s="89"/>
-      <c r="H85" s="87" t="s">
+      <c r="G85" s="82"/>
+      <c r="H85" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I85" s="88"/>
-      <c r="J85" s="89"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B86" s="107"/>
-      <c r="C86" s="101"/>
-      <c r="D86" s="103">
+      <c r="I85" s="83"/>
+      <c r="J85" s="82"/>
+    </row>
+    <row r="86" spans="2:10">
+      <c r="B86" s="86"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="95">
         <f>'Pass Fail'!M23</f>
         <v>8.73</v>
       </c>
-      <c r="E86" s="103"/>
-      <c r="F86" s="98">
+      <c r="E86" s="95"/>
+      <c r="F86" s="96">
         <f>'Pass Fail'!N23</f>
         <v>8.7799999999999994</v>
       </c>
-      <c r="G86" s="99"/>
-      <c r="H86" s="90" t="s">
+      <c r="G86" s="97"/>
+      <c r="H86" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I86" s="91"/>
-      <c r="J86" s="92"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B87" s="105" t="str">
+      <c r="I86" s="92"/>
+      <c r="J86" s="93"/>
+    </row>
+    <row r="87" spans="2:10">
+      <c r="B87" s="84" t="str">
         <f>'Pass Fail'!D24</f>
         <v>SC04_SubmitScreen_T02_GetPSR_ReportId</v>
       </c>
-      <c r="C87" s="100" t="s">
+      <c r="C87" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D87" s="102" t="s">
+      <c r="D87" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E87" s="102"/>
-      <c r="F87" s="87" t="s">
+      <c r="E87" s="80"/>
+      <c r="F87" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G87" s="89"/>
-      <c r="H87" s="87" t="s">
+      <c r="G87" s="82"/>
+      <c r="H87" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I87" s="88"/>
-      <c r="J87" s="89"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B88" s="106"/>
-      <c r="C88" s="100"/>
-      <c r="D88" s="104">
+      <c r="I87" s="83"/>
+      <c r="J87" s="82"/>
+    </row>
+    <row r="88" spans="2:10">
+      <c r="B88" s="85"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="88">
         <f>'Pass Fail'!K24</f>
         <v>31428</v>
       </c>
-      <c r="E88" s="104"/>
-      <c r="F88" s="96">
+      <c r="E88" s="88"/>
+      <c r="F88" s="89">
         <f>'Pass Fail'!L24</f>
         <v>31604</v>
       </c>
-      <c r="G88" s="97"/>
-      <c r="H88" s="90" t="s">
+      <c r="G88" s="90"/>
+      <c r="H88" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I88" s="91"/>
-      <c r="J88" s="92"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B89" s="106"/>
-      <c r="C89" s="101" t="s">
+      <c r="I88" s="92"/>
+      <c r="J88" s="93"/>
+    </row>
+    <row r="89" spans="2:10">
+      <c r="B89" s="85"/>
+      <c r="C89" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="102" t="s">
+      <c r="D89" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="E89" s="102"/>
-      <c r="F89" s="87" t="s">
+      <c r="E89" s="80"/>
+      <c r="F89" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="G89" s="89"/>
-      <c r="H89" s="87" t="s">
+      <c r="G89" s="82"/>
+      <c r="H89" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="I89" s="88"/>
-      <c r="J89" s="89"/>
-    </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B90" s="107"/>
-      <c r="C90" s="101"/>
-      <c r="D90" s="103">
+      <c r="I89" s="83"/>
+      <c r="J89" s="82"/>
+    </row>
+    <row r="90" spans="2:10">
+      <c r="B90" s="86"/>
+      <c r="C90" s="94"/>
+      <c r="D90" s="95">
         <f>'Pass Fail'!M24</f>
         <v>8.73</v>
       </c>
-      <c r="E90" s="103"/>
-      <c r="F90" s="98">
+      <c r="E90" s="95"/>
+      <c r="F90" s="96">
         <f>'Pass Fail'!N24</f>
         <v>8.7788888888888881</v>
       </c>
-      <c r="G90" s="99"/>
-      <c r="H90" s="90" t="s">
+      <c r="G90" s="97"/>
+      <c r="H90" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I90" s="91"/>
-      <c r="J90" s="92"/>
-    </row>
-    <row r="91" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="122" t="s">
+      <c r="I90" s="92"/>
+      <c r="J90" s="93"/>
+    </row>
+    <row r="91" spans="2:10" ht="24" customHeight="1">
+      <c r="B91" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C91" s="84"/>
-      <c r="D91" s="124" t="s">
+      <c r="C91" s="104"/>
+      <c r="D91" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="E91" s="125"/>
-      <c r="F91" s="125"/>
-      <c r="G91" s="126"/>
-      <c r="H91" s="124" t="s">
+      <c r="E91" s="108"/>
+      <c r="F91" s="108"/>
+      <c r="G91" s="109"/>
+      <c r="H91" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="I91" s="125"/>
-      <c r="J91" s="126"/>
-    </row>
-    <row r="92" spans="2:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="123"/>
-      <c r="C92" s="86"/>
-      <c r="D92" s="80">
+      <c r="I91" s="108"/>
+      <c r="J91" s="109"/>
+    </row>
+    <row r="92" spans="2:10" ht="24" customHeight="1">
+      <c r="B92" s="105"/>
+      <c r="C92" s="106"/>
+      <c r="D92" s="124">
         <f>Hardware!C9</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="E92" s="80"/>
-      <c r="F92" s="80"/>
-      <c r="G92" s="80"/>
-      <c r="H92" s="81">
+      <c r="E92" s="124"/>
+      <c r="F92" s="124"/>
+      <c r="G92" s="124"/>
+      <c r="H92" s="125">
         <f>Hardware!C30</f>
         <v>1.34</v>
       </c>
-      <c r="I92" s="82"/>
-      <c r="J92" s="83"/>
-    </row>
-    <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="I92" s="126"/>
+      <c r="J92" s="127"/>
+    </row>
+    <row r="93" spans="2:10" ht="15" customHeight="1"/>
+    <row r="97" ht="28.5" customHeight="1"/>
+    <row r="98" ht="28.5" customHeight="1"/>
+    <row r="99" ht="28.5" customHeight="1"/>
+    <row r="100" ht="28.5" customHeight="1"/>
+    <row r="101" ht="28.5" customHeight="1"/>
+    <row r="102" ht="28.5" customHeight="1"/>
+    <row r="103" ht="28.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="320">
+    <mergeCell ref="D92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B91:C92"/>
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B11:C12"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:G21"/>
     <mergeCell ref="H21:J21"/>
@@ -10269,624 +11482,314 @@
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="B83:B86"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="B91:C92"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="F75:G75"/>
   </mergeCells>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="92" priority="82" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="182" priority="211" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="82" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:G14">
-    <cfRule type="cellIs" dxfId="90" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="25" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="179" priority="26" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="27" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="177" priority="28" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:G16">
-    <cfRule type="cellIs" dxfId="86" priority="190" operator="lessThan">
+    <cfRule type="cellIs" dxfId="176" priority="201" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="197" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="175" priority="198" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="197" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="201" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="173" priority="190" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:G18 F22:G22 F26:G26 F30:G30 F34:G34 F38:G38 F42:G42 F46:G46 F50:G50 F54:G54 F58:G58 F62:G62 F66:G66 F70:G70 F74:G74 F78:G78 F82:G82 F86:G86 F90:G90">
-    <cfRule type="cellIs" dxfId="82" priority="166" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="189" operator="lessThan">
       <formula>$D$18</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="189" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="166" operator="greaterThan">
       <formula>$D$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G20">
-    <cfRule type="cellIs" dxfId="80" priority="119" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="121" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="120" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="169" priority="122" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="120" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="122" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="167" priority="119" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="lessThan">
+    <cfRule type="cellIs" dxfId="166" priority="80" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="165" priority="79" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="78" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="80" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="163" priority="77" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:G28">
-    <cfRule type="cellIs" dxfId="72" priority="65" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="65" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="161" priority="66" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="67" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="68" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="159" priority="68" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:G32">
-    <cfRule type="cellIs" dxfId="68" priority="61" operator="lessThan">
+    <cfRule type="cellIs" dxfId="158" priority="64" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="157" priority="63" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="62" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="155" priority="61" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:G36">
-    <cfRule type="cellIs" dxfId="64" priority="57" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="60" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="153" priority="59" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="57" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="151" priority="58" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:G40">
-    <cfRule type="cellIs" dxfId="60" priority="53" operator="lessThan">
+    <cfRule type="cellIs" dxfId="150" priority="53" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="149" priority="56" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="55" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="56" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="147" priority="54" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:G44">
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="49" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="145" priority="50" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="51" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="143" priority="52" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:G48">
-    <cfRule type="cellIs" dxfId="52" priority="45" operator="lessThan">
+    <cfRule type="cellIs" dxfId="142" priority="45" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="141" priority="46" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="47" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="139" priority="48" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:G52">
-    <cfRule type="cellIs" dxfId="48" priority="41" operator="lessThan">
+    <cfRule type="cellIs" dxfId="138" priority="43" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="137" priority="44" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="42" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="135" priority="41" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:G56">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="38" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="133" priority="40" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="39" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="40" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="131" priority="37" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60:G60">
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="lessThan">
+    <cfRule type="cellIs" dxfId="130" priority="35" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="129" priority="36" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="34" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="36" operator="greaterThan">
-      <formula>$D$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F64:G64">
-    <cfRule type="cellIs" dxfId="36" priority="17" operator="lessThan">
-      <formula>$D$16</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="18" operator="greaterThan">
-      <formula>$D$16</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
-      <formula>$D$16</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="127" priority="33" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:G68">
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="13" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="121" priority="14" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="15" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="119" priority="16" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:G72">
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="11" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="117" priority="10" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="12" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="115" priority="9" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:G76">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="8" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="6" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="111" priority="5" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80:G80">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="109" priority="3" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="1" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="107" priority="4" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:G84 F88:G88">
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="29" operator="lessThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="105" priority="30" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="31" operator="equal">
       <formula>$D$16</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="103" priority="32" operator="greaterThan">
       <formula>$D$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:J12">
-    <cfRule type="cellIs" dxfId="12" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="22" operator="equal">
+      <formula>"passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="21" operator="equal">
       <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="22" operator="equal">
-      <formula>"passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:J14">
-    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="24" operator="equal">
+      <formula>"passed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="23" operator="equal">
       <formula>"Failed"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="24" operator="equal">
-      <formula>"passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16:J16">
-    <cfRule type="cellIs" dxfId="8" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="155" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="156" operator="equal">
       <formula>"passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:J18">
-    <cfRule type="cellIs" dxfId="6" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="206" operator="equal">
       <formula>"passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20:J20">
-    <cfRule type="cellIs" dxfId="5" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="117" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="118" operator="equal">
       <formula>"passed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22:J22 H24:J24 H26:J26 H28:J28 H30:J30 H32:J32 H34:J34 H36:J36 H38:J38 H40:J40 H42:J42 H44:J44 H46:J46 H48:J48 H50:J50 H52:J52 H54:J54 H56:J56 H58:J58 H60:J60 H62:J62 H64:J64 H66:J66 H68:J68 H70:J70 H72:J72 H74:J74 H76:J76 H78:J78 H80:J80 H82:J82 H84:J84 H86:J86 H88:J88 H90:J90">
-    <cfRule type="cellIs" dxfId="3" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="81" operator="equal">
       <formula>"passed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10910,38 +11813,38 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="3"/>
     <col min="6" max="6" width="18.6640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="57" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="57" customWidth="1"/>
     <col min="8" max="8" width="12" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="3" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" style="3" customWidth="1"/>
     <col min="12" max="13" width="20.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="20.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="20.77734375" style="3" customWidth="1"/>
     <col min="15" max="15" width="12.33203125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="19.83203125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" style="3" customWidth="1"/>
     <col min="18" max="18" width="12.33203125" style="3" customWidth="1"/>
     <col min="19" max="1025" width="8.6640625" style="3"/>
     <col min="1026" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:21">
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="140" t="s">
+    <row r="2" spans="2:21" ht="15" customHeight="1">
+      <c r="B2" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
       <c r="E2" s="4"/>
       <c r="H2" s="3"/>
       <c r="J2" s="30"/>
@@ -10950,54 +11853,54 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:21">
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="102" t="s">
+    <row r="4" spans="2:21" ht="15" customHeight="1">
+      <c r="B4" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="F4" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="139" t="s">
+      <c r="H4" s="120"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="142" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="102" t="s">
+      <c r="K4" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="102" t="s">
+      <c r="L4" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="102" t="s">
+      <c r="M4" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="80" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="141" t="s">
+    <row r="5" spans="2:21" ht="15" thickBot="1">
+      <c r="B5" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="141"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
       <c r="G5" s="32" t="s">
         <v>32</v>
       </c>
@@ -11007,26 +11910,26 @@
       <c r="I5" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J5" s="139"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="102"/>
-      <c r="M5" s="102"/>
-      <c r="N5" s="102"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="142" t="s">
+      <c r="J5" s="142"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="149" t="s">
+      <c r="C6" s="138" t="s">
         <v>84</v>
       </c>
       <c r="D6" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="129">
+      <c r="E6" s="143">
         <v>166</v>
       </c>
-      <c r="F6" s="129">
+      <c r="F6" s="143">
         <v>15</v>
       </c>
       <c r="G6" s="63">
@@ -11066,14 +11969,14 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="143"/>
-      <c r="C7" s="150"/>
+    <row r="7" spans="2:21">
+      <c r="B7" s="132"/>
+      <c r="C7" s="139"/>
       <c r="D7" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
       <c r="G7" s="63">
         <v>1220</v>
       </c>
@@ -11088,18 +11991,18 @@
         <f t="shared" ref="J7:J24" si="1">H7/G7</f>
         <v>1</v>
       </c>
-      <c r="K7" s="135">
+      <c r="K7" s="149">
         <f t="shared" ref="K7:K24" si="2">M7*3600</f>
         <v>31428</v>
       </c>
-      <c r="L7" s="135" cm="1">
+      <c r="L7" s="149" cm="1">
         <f t="array" ref="L7">SUM(H7:H13*4)</f>
         <v>32144</v>
       </c>
-      <c r="M7" s="132">
+      <c r="M7" s="146">
         <v>8.73</v>
       </c>
-      <c r="N7" s="132" cm="1">
+      <c r="N7" s="146" cm="1">
         <f t="array" ref="N7">SUM(H7:H13/900)</f>
         <v>8.9288888888888884</v>
       </c>
@@ -11111,14 +12014,14 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B8" s="143"/>
-      <c r="C8" s="150"/>
+    <row r="8" spans="2:21">
+      <c r="B8" s="132"/>
+      <c r="C8" s="139"/>
       <c r="D8" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
       <c r="G8" s="63">
         <v>1199</v>
       </c>
@@ -11133,19 +12036,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="133"/>
-      <c r="N8" s="133"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B9" s="143"/>
-      <c r="C9" s="150"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="150"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="132"/>
+      <c r="C9" s="139"/>
       <c r="D9" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="130"/>
-      <c r="F9" s="130"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
       <c r="G9" s="63">
         <v>1178</v>
       </c>
@@ -11160,19 +12063,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="143"/>
-      <c r="C10" s="150"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="150"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="132"/>
+      <c r="C10" s="139"/>
       <c r="D10" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="130"/>
-      <c r="F10" s="130"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
       <c r="G10" s="63">
         <v>1146</v>
       </c>
@@ -11187,19 +12090,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K10" s="136"/>
-      <c r="L10" s="136"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="143"/>
-      <c r="C11" s="150"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="150"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="132"/>
+      <c r="C11" s="139"/>
       <c r="D11" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="130"/>
-      <c r="F11" s="130"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
       <c r="G11" s="63">
         <v>1117</v>
       </c>
@@ -11214,19 +12117,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="143"/>
-      <c r="C12" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="132"/>
+      <c r="C12" s="139"/>
       <c r="D12" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
       <c r="G12" s="63">
         <v>1099</v>
       </c>
@@ -11241,19 +12144,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="143"/>
-      <c r="C13" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="132"/>
+      <c r="C13" s="139"/>
       <c r="D13" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="130"/>
-      <c r="F13" s="130"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
       <c r="G13" s="63">
         <v>1077</v>
       </c>
@@ -11268,19 +12171,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K13" s="137"/>
-      <c r="L13" s="137"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="134"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="143"/>
-      <c r="C14" s="150"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="151"/>
+      <c r="M13" s="148"/>
+      <c r="N13" s="148"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="132"/>
+      <c r="C14" s="139"/>
       <c r="D14" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
       <c r="G14" s="63">
         <v>8018</v>
       </c>
@@ -11311,14 +12214,14 @@
         <v>8.9088888888888889</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="143"/>
-      <c r="C15" s="151"/>
+    <row r="15" spans="2:21" ht="15" thickBot="1">
+      <c r="B15" s="132"/>
+      <c r="C15" s="140"/>
       <c r="D15" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="130"/>
-      <c r="F15" s="130"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
       <c r="G15" s="63">
         <v>7999</v>
       </c>
@@ -11349,16 +12252,16 @@
         <v>8.887777777777778</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="143"/>
-      <c r="C16" s="145" t="s">
+    <row r="16" spans="2:21">
+      <c r="B16" s="132"/>
+      <c r="C16" s="134" t="s">
         <v>85</v>
       </c>
       <c r="D16" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="130"/>
-      <c r="F16" s="130"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
       <c r="G16" s="63">
         <v>7933</v>
       </c>
@@ -11389,14 +12292,14 @@
         <v>8.813298566666667</v>
       </c>
     </row>
-    <row r="17" spans="2:1025" x14ac:dyDescent="0.2">
-      <c r="B17" s="143"/>
-      <c r="C17" s="147"/>
+    <row r="17" spans="2:1025">
+      <c r="B17" s="132"/>
+      <c r="C17" s="136"/>
       <c r="D17" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
       <c r="G17" s="63">
         <v>7918</v>
       </c>
@@ -11427,14 +12330,14 @@
         <v>3.4199601555555557</v>
       </c>
     </row>
-    <row r="18" spans="2:1025" x14ac:dyDescent="0.2">
-      <c r="B18" s="143"/>
-      <c r="C18" s="147"/>
+    <row r="18" spans="2:1025">
+      <c r="B18" s="132"/>
+      <c r="C18" s="136"/>
       <c r="D18" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
       <c r="G18" s="63">
         <v>7933</v>
       </c>
@@ -11465,14 +12368,14 @@
         <v>8.8144444444444439</v>
       </c>
     </row>
-    <row r="19" spans="2:1025" x14ac:dyDescent="0.2">
-      <c r="B19" s="143"/>
-      <c r="C19" s="147"/>
+    <row r="19" spans="2:1025">
+      <c r="B19" s="132"/>
+      <c r="C19" s="136"/>
       <c r="D19" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
       <c r="G19" s="63">
         <v>7933</v>
       </c>
@@ -11503,14 +12406,14 @@
         <v>8.8144444444444439</v>
       </c>
     </row>
-    <row r="20" spans="2:1025" x14ac:dyDescent="0.2">
-      <c r="B20" s="143"/>
-      <c r="C20" s="147"/>
+    <row r="20" spans="2:1025">
+      <c r="B20" s="132"/>
+      <c r="C20" s="136"/>
       <c r="D20" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
       <c r="G20" s="63">
         <v>7931</v>
       </c>
@@ -11541,14 +12444,14 @@
         <v>8.8122222222222231</v>
       </c>
     </row>
-    <row r="21" spans="2:1025" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="143"/>
-      <c r="C21" s="148"/>
+    <row r="21" spans="2:1025" ht="15" thickBot="1">
+      <c r="B21" s="132"/>
+      <c r="C21" s="137"/>
       <c r="D21" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
       <c r="G21" s="63">
         <v>7918</v>
       </c>
@@ -11579,16 +12482,16 @@
         <v>6.5877760000000007</v>
       </c>
     </row>
-    <row r="22" spans="2:1025" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="143"/>
+    <row r="22" spans="2:1025" ht="15" thickBot="1">
+      <c r="B22" s="132"/>
       <c r="C22" s="58" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
       <c r="G22" s="63">
         <v>7917</v>
       </c>
@@ -11619,16 +12522,16 @@
         <v>8.7966666666666669</v>
       </c>
     </row>
-    <row r="23" spans="2:1025" x14ac:dyDescent="0.2">
-      <c r="B23" s="143"/>
-      <c r="C23" s="145" t="s">
+    <row r="23" spans="2:1025">
+      <c r="B23" s="132"/>
+      <c r="C23" s="134" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
       <c r="G23" s="63">
         <v>7902</v>
       </c>
@@ -11659,14 +12562,14 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="24" spans="2:1025" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="144"/>
-      <c r="C24" s="146"/>
+    <row r="24" spans="2:1025" ht="16.2" thickBot="1">
+      <c r="B24" s="133"/>
+      <c r="C24" s="135"/>
       <c r="D24" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
       <c r="G24" s="63">
         <v>7901</v>
       </c>
@@ -11699,356 +12602,370 @@
       <c r="AMJ24" s="2"/>
       <c r="AMK24" s="2"/>
     </row>
-    <row r="25" spans="2:1025" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:1025">
       <c r="C25" s="3"/>
       <c r="H25" s="3"/>
       <c r="AMJ25" s="2"/>
       <c r="AMK25" s="2"/>
     </row>
-    <row r="26" spans="2:1025" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:1025">
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:1025" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:1025">
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="2:1025" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:1025">
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:1025" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:1025">
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="2:1025" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:1025">
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="2:1025" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:1025">
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:1025" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:1025">
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:8">
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:8">
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:8">
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:8">
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:8">
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="8:8">
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="8:8">
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="8:8">
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="8:8">
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="8:8">
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="8:8">
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="8:8">
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="8:8">
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="8:8">
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="8:8">
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="8:8">
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8">
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:8">
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:8">
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:8">
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:8">
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:8">
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:8">
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:8">
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:8">
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:8">
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:8">
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:8">
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:8">
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="8:8">
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="8:8">
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="8:8">
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="8:8">
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="8:8">
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="8:8">
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="8:8">
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="8:8">
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="8:8">
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="8:8">
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="8:8">
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="8:8">
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="8:8">
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="8:8">
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="8:8">
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="8:8">
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="8:8">
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="8:8">
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="8:8">
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="8:8">
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="8:8">
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="8:8">
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="8:8">
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="8:8">
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="8:8">
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="8:8">
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="8:8">
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="8:8">
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="8:8">
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="8:8">
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="8:8">
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="8:8">
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="8:8">
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="8:8">
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="8:8">
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="8:8">
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="8:8">
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="8:8">
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="8:8">
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="8:8">
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="8:8">
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="8:8">
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="8:8">
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="8:8">
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="8:8">
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="8:8">
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="8:8">
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="8:8">
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="8:8">
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="8:8">
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="8:8">
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="8:8">
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="8:8">
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="8:8">
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="8:8">
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="8:8">
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="8:8">
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="8:8">
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="8:8">
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="8:8">
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="8:8">
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="8:8">
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="8:8">
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="8:8">
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="8:8">
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="8:8">
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="8:8">
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="8:8">
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="8:8">
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="8:8">
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="8:8">
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="8:8">
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="8:8">
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="8:8">
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="8:8">
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="8:8">
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="8:8">
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="8:8">
       <c r="H139" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="E6:E24"/>
+    <mergeCell ref="F6:F24"/>
+    <mergeCell ref="N7:N13"/>
+    <mergeCell ref="M7:M13"/>
+    <mergeCell ref="K7:K13"/>
+    <mergeCell ref="L7:L13"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -12057,23 +12974,9 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="C6:C15"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="E6:E24"/>
-    <mergeCell ref="F6:F24"/>
-    <mergeCell ref="N7:N13"/>
-    <mergeCell ref="M7:M13"/>
-    <mergeCell ref="K7:K13"/>
-    <mergeCell ref="L7:L13"/>
   </mergeCells>
   <conditionalFormatting sqref="I6:I24">
-    <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12098,32 +13001,32 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="48" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5" customWidth="1"/>
+    <col min="16" max="16" width="4.44140625" customWidth="1"/>
     <col min="17" max="17" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="115" t="s">
+    <row r="3" spans="2:4">
+      <c r="B3" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="80" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="154" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="115"/>
-      <c r="C4" s="102"/>
+    <row r="4" spans="2:4" ht="18" customHeight="1">
+      <c r="B4" s="120"/>
+      <c r="C4" s="80"/>
       <c r="D4" s="154"/>
     </row>
-    <row r="5" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="14.4">
       <c r="B5" s="15" t="str">
         <f>'Pass Fail'!D6</f>
         <v>SC01_Homepage_T01_GetUserDetails</v>
@@ -12137,69 +13040,69 @@
         <v>32200</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" ht="28.8">
       <c r="B6" s="15" t="str">
         <f>'Pass Fail'!D7</f>
         <v>SC01_Homepage_ST02_GetAllMasterData_DelayReason</v>
       </c>
-      <c r="C6" s="135">
+      <c r="C6" s="149">
         <f>'Pass Fail'!K7</f>
         <v>31428</v>
       </c>
-      <c r="D6" s="135">
+      <c r="D6" s="149">
         <f>'Pass Fail'!L7</f>
         <v>32144</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" ht="14.4">
       <c r="B7" s="15" t="str">
         <f>'Pass Fail'!D8</f>
         <v>SC01_Homepage_ST03_GetAllMasterData_DelayHead</v>
       </c>
       <c r="C7" s="152"/>
-      <c r="D7" s="136"/>
-    </row>
-    <row r="8" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D7" s="150"/>
+    </row>
+    <row r="8" spans="2:4" ht="14.4">
       <c r="B8" s="15" t="str">
         <f>'Pass Fail'!D9</f>
         <v>SC01_Homepage_ST04_GetAllMasterData_Training</v>
       </c>
       <c r="C8" s="152"/>
-      <c r="D8" s="136"/>
-    </row>
-    <row r="9" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D8" s="150"/>
+    </row>
+    <row r="9" spans="2:4" ht="14.4">
       <c r="B9" s="15" t="str">
         <f>'Pass Fail'!D10</f>
         <v>SC01_Homepage_ST05_GetAllMasterData_FlightType</v>
       </c>
       <c r="C9" s="152"/>
-      <c r="D9" s="136"/>
-    </row>
-    <row r="10" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D9" s="150"/>
+    </row>
+    <row r="10" spans="2:4" ht="28.8">
       <c r="B10" s="15" t="str">
         <f>'Pass Fail'!D11</f>
         <v>SC01_Homepage_ST06_GetAllMasterData_RemarkType</v>
       </c>
       <c r="C10" s="152"/>
-      <c r="D10" s="136"/>
-    </row>
-    <row r="11" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D10" s="150"/>
+    </row>
+    <row r="11" spans="2:4" ht="14.4">
       <c r="B11" s="15" t="str">
         <f>'Pass Fail'!D12</f>
         <v>SC01_Homepage_ST07_GetAllMasterData_Aircraft</v>
       </c>
       <c r="C11" s="152"/>
-      <c r="D11" s="136"/>
-    </row>
-    <row r="12" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D11" s="150"/>
+    </row>
+    <row r="12" spans="2:4" ht="14.4">
       <c r="B12" s="15" t="str">
         <f>'Pass Fail'!D13</f>
         <v>SC01_Homepage_ST08_GetAllMasterData_Airport</v>
       </c>
       <c r="C12" s="153"/>
-      <c r="D12" s="137"/>
-    </row>
-    <row r="13" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D12" s="151"/>
+    </row>
+    <row r="13" spans="2:4" ht="14.4">
       <c r="B13" s="15" t="str">
         <f>'Pass Fail'!D14</f>
         <v>SC01_Homepage_T09_GetConfigProperties</v>
@@ -12213,7 +13116,7 @@
         <v>32072</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" ht="14.4">
       <c r="B14" s="15" t="str">
         <f>'Pass Fail'!D15</f>
         <v>SC01_Homepage_T10_GetFlights</v>
@@ -12227,7 +13130,7 @@
         <v>31996</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" ht="14.4">
       <c r="B15" s="15" t="str">
         <f>'Pass Fail'!D16</f>
         <v>SC02_VerifyScreen_T01_UploadAttachment</v>
@@ -12241,7 +13144,7 @@
         <v>31727.87484</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" ht="14.4">
       <c r="B16" s="15" t="str">
         <f>'Pass Fail'!D17</f>
         <v>SC02_VerifyScreen_T02_GetAttachment</v>
@@ -12255,7 +13158,7 @@
         <v>12311.85656</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="14.4">
       <c r="B17" s="15" t="str">
         <f>'Pass Fail'!D18</f>
         <v>SC02_VerifyScreen_T03_GetAssignedCrews</v>
@@ -12269,7 +13172,7 @@
         <v>31732</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="14.4">
       <c r="B18" s="15" t="str">
         <f>'Pass Fail'!D19</f>
         <v>SC02_VerifyScreen_T04_GetAssignedCrewsByHashId</v>
@@ -12283,7 +13186,7 @@
         <v>31732</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="14.4">
       <c r="B19" s="15" t="str">
         <f>'Pass Fail'!D20</f>
         <v>SC02_VerifyScreen_T05_GenerateCrewShift</v>
@@ -12297,7 +13200,7 @@
         <v>31724</v>
       </c>
     </row>
-    <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" ht="14.4">
       <c r="B20" s="15" t="str">
         <f>'Pass Fail'!D21</f>
         <v>SC02_VerifyScreen_T06_DeleteAttachment</v>
@@ -12311,7 +13214,7 @@
         <v>23715.993600000002</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" ht="14.4">
       <c r="B21" s="15" t="str">
         <f>'Pass Fail'!D22</f>
         <v>SC03_PreviewScreen_T01_SavePSR</v>
@@ -12325,7 +13228,7 @@
         <v>31668</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" ht="14.4">
       <c r="B22" s="15" t="str">
         <f>'Pass Fail'!D23</f>
         <v>SC04_SubmitScreen_T01_GetPSR_Reports</v>
@@ -12339,7 +13242,7 @@
         <v>31608</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" ht="14.4">
       <c r="B23" s="15" t="str">
         <f>'Pass Fail'!D24</f>
         <v>SC04_SubmitScreen_T02_GetPSR_ReportId</v>
@@ -12353,58 +13256,58 @@
         <v>31604</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" ht="14.4">
       <c r="B24" s="36"/>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
     </row>
-    <row r="25" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="14.4">
       <c r="B25" s="36"/>
       <c r="C25" s="28"/>
       <c r="D25" s="29"/>
     </row>
-    <row r="26" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" ht="14.4">
       <c r="B26" s="36"/>
       <c r="C26" s="28"/>
       <c r="D26" s="29"/>
     </row>
-    <row r="27" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="14.4">
       <c r="B27" s="36"/>
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>
     </row>
-    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" ht="14.4">
       <c r="B28" s="36"/>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
     </row>
-    <row r="29" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" ht="14.4">
       <c r="B29" s="36"/>
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
     </row>
-    <row r="30" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" ht="14.4">
       <c r="B30" s="36"/>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B32" s="115" t="s">
+    <row r="32" spans="2:4">
+      <c r="B32" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="102" t="s">
+      <c r="C32" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D32" s="154" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="115"/>
-      <c r="C33" s="102"/>
+    <row r="33" spans="2:4">
+      <c r="B33" s="120"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="154"/>
     </row>
-    <row r="34" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" ht="14.4">
       <c r="B34" s="15" t="str">
         <f>'Pass Fail'!D6</f>
         <v>SC01_Homepage_T01_GetUserDetails</v>
@@ -12418,69 +13321,69 @@
         <v>8.9444444444444446</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:4" ht="28.8">
       <c r="B35" s="15" t="str">
         <f>'Pass Fail'!D7</f>
         <v>SC01_Homepage_ST02_GetAllMasterData_DelayReason</v>
       </c>
-      <c r="C35" s="132">
+      <c r="C35" s="146">
         <f>'Pass Fail'!M7</f>
         <v>8.73</v>
       </c>
-      <c r="D35" s="132">
+      <c r="D35" s="146">
         <f>'Pass Fail'!N7</f>
         <v>8.9288888888888884</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:4" ht="14.4">
       <c r="B36" s="15" t="str">
         <f>'Pass Fail'!D8</f>
         <v>SC01_Homepage_ST03_GetAllMasterData_DelayHead</v>
       </c>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-    </row>
-    <row r="37" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+    </row>
+    <row r="37" spans="2:4" ht="14.4">
       <c r="B37" s="15" t="str">
         <f>'Pass Fail'!D9</f>
         <v>SC01_Homepage_ST04_GetAllMasterData_Training</v>
       </c>
-      <c r="C37" s="133"/>
-      <c r="D37" s="133"/>
-    </row>
-    <row r="38" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C37" s="147"/>
+      <c r="D37" s="147"/>
+    </row>
+    <row r="38" spans="2:4" ht="14.4">
       <c r="B38" s="15" t="str">
         <f>'Pass Fail'!D10</f>
         <v>SC01_Homepage_ST05_GetAllMasterData_FlightType</v>
       </c>
-      <c r="C38" s="133"/>
-      <c r="D38" s="133"/>
-    </row>
-    <row r="39" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C38" s="147"/>
+      <c r="D38" s="147"/>
+    </row>
+    <row r="39" spans="2:4" ht="28.8">
       <c r="B39" s="15" t="str">
         <f>'Pass Fail'!D11</f>
         <v>SC01_Homepage_ST06_GetAllMasterData_RemarkType</v>
       </c>
-      <c r="C39" s="133"/>
-      <c r="D39" s="133"/>
-    </row>
-    <row r="40" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C39" s="147"/>
+      <c r="D39" s="147"/>
+    </row>
+    <row r="40" spans="2:4" ht="14.4">
       <c r="B40" s="15" t="str">
         <f>'Pass Fail'!D12</f>
         <v>SC01_Homepage_ST07_GetAllMasterData_Aircraft</v>
       </c>
-      <c r="C40" s="133"/>
-      <c r="D40" s="133"/>
-    </row>
-    <row r="41" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+    </row>
+    <row r="41" spans="2:4" ht="14.4">
       <c r="B41" s="15" t="str">
         <f>'Pass Fail'!D13</f>
         <v>SC01_Homepage_ST08_GetAllMasterData_Airport</v>
       </c>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-    </row>
-    <row r="42" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="C41" s="148"/>
+      <c r="D41" s="148"/>
+    </row>
+    <row r="42" spans="2:4" ht="14.4">
       <c r="B42" s="15" t="str">
         <f>'Pass Fail'!D14</f>
         <v>SC01_Homepage_T09_GetConfigProperties</v>
@@ -12494,7 +13397,7 @@
         <v>8.9088888888888889</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:4" ht="14.4">
       <c r="B43" s="15" t="str">
         <f>'Pass Fail'!D15</f>
         <v>SC01_Homepage_T10_GetFlights</v>
@@ -12508,7 +13411,7 @@
         <v>8.887777777777778</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:4" ht="14.4">
       <c r="B44" s="15" t="str">
         <f>'Pass Fail'!D16</f>
         <v>SC02_VerifyScreen_T01_UploadAttachment</v>
@@ -12522,7 +13425,7 @@
         <v>8.813298566666667</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:4" ht="14.4">
       <c r="B45" s="15" t="str">
         <f>'Pass Fail'!D17</f>
         <v>SC02_VerifyScreen_T02_GetAttachment</v>
@@ -12536,7 +13439,7 @@
         <v>3.4199601555555557</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:4" ht="14.4">
       <c r="B46" s="15" t="str">
         <f>'Pass Fail'!D18</f>
         <v>SC02_VerifyScreen_T03_GetAssignedCrews</v>
@@ -12550,7 +13453,7 @@
         <v>8.8144444444444439</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:4" ht="14.4">
       <c r="B47" s="15" t="str">
         <f>'Pass Fail'!D19</f>
         <v>SC02_VerifyScreen_T04_GetAssignedCrewsByHashId</v>
@@ -12564,7 +13467,7 @@
         <v>8.8144444444444439</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:4" ht="14.4">
       <c r="B48" s="15" t="str">
         <f>'Pass Fail'!D20</f>
         <v>SC02_VerifyScreen_T05_GenerateCrewShift</v>
@@ -12578,7 +13481,7 @@
         <v>8.8122222222222231</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:4" ht="14.4">
       <c r="B49" s="15" t="str">
         <f>'Pass Fail'!D21</f>
         <v>SC02_VerifyScreen_T06_DeleteAttachment</v>
@@ -12592,7 +13495,7 @@
         <v>6.5877760000000007</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:4" ht="14.4">
       <c r="B50" s="15" t="str">
         <f>'Pass Fail'!D22</f>
         <v>SC03_PreviewScreen_T01_SavePSR</v>
@@ -12606,7 +13509,7 @@
         <v>8.7966666666666669</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:4" ht="14.4">
       <c r="B51" s="15" t="str">
         <f>'Pass Fail'!D23</f>
         <v>SC04_SubmitScreen_T01_GetPSR_Reports</v>
@@ -12620,7 +13523,7 @@
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:4" ht="14.4">
       <c r="B52" s="15" t="str">
         <f>'Pass Fail'!D24</f>
         <v>SC04_SubmitScreen_T02_GetPSR_ReportId</v>
@@ -12634,300 +13537,300 @@
         <v>8.7788888888888881</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:4">
       <c r="D53"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:4">
       <c r="D54"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:4">
       <c r="D55"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:4">
       <c r="D56"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:4">
       <c r="D57"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:4">
       <c r="D58"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:4">
       <c r="D59"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4">
       <c r="D60"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:4">
       <c r="D61"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:4">
       <c r="D62"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:4">
       <c r="D63"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:4">
       <c r="D64"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="4:4">
       <c r="D65"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="4:4">
       <c r="D66"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="4:4">
       <c r="D67"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:4">
       <c r="D68"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:4">
       <c r="D69"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:4">
       <c r="D70"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:4">
       <c r="D71"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="4:4">
       <c r="D72"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:4">
       <c r="D73"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:4">
       <c r="D74"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:4">
       <c r="D75"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:4">
       <c r="D76"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:4">
       <c r="D77"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="4:4">
       <c r="D78"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:4">
       <c r="D79"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:4">
       <c r="D80"/>
     </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:4">
       <c r="D81"/>
     </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:4">
       <c r="D82"/>
     </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:4">
       <c r="D83"/>
     </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="3:4">
       <c r="C84" s="37"/>
       <c r="D84"/>
     </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:4">
       <c r="C85" s="37"/>
       <c r="D85"/>
     </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:4">
       <c r="C86" s="37"/>
       <c r="D86"/>
     </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:4">
       <c r="C87" s="37"/>
       <c r="D87"/>
     </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:4">
       <c r="C88" s="37"/>
       <c r="D88"/>
     </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="3:4">
       <c r="C89" s="37"/>
       <c r="D89"/>
     </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:4">
       <c r="C90" s="37"/>
       <c r="D90"/>
     </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:4">
       <c r="C91" s="37"/>
       <c r="D91"/>
     </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:4">
       <c r="C92" s="37"/>
       <c r="D92"/>
     </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:4">
       <c r="C93" s="37"/>
       <c r="D93"/>
     </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="3:4">
       <c r="C94" s="37"/>
       <c r="D94"/>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:4">
       <c r="C95" s="37"/>
       <c r="D95"/>
     </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:4">
       <c r="C96" s="37"/>
       <c r="D96"/>
     </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:4">
       <c r="C97" s="37"/>
       <c r="D97"/>
     </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:4">
       <c r="C98" s="37"/>
       <c r="D98"/>
     </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="3:4">
       <c r="C99" s="37"/>
       <c r="D99"/>
     </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:4">
       <c r="C100" s="37"/>
       <c r="D100"/>
     </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:4">
       <c r="C101" s="37"/>
       <c r="D101"/>
     </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:4">
       <c r="C102" s="37"/>
       <c r="D102"/>
     </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:4">
       <c r="C103" s="37"/>
       <c r="D103"/>
     </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="104" spans="3:4">
       <c r="C104" s="37"/>
       <c r="D104"/>
     </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:4">
       <c r="C105" s="37"/>
       <c r="D105"/>
     </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:4">
       <c r="C106" s="37"/>
       <c r="D106"/>
     </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:4">
       <c r="C107" s="37"/>
       <c r="D107"/>
     </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:4">
       <c r="C108" s="37"/>
       <c r="D108"/>
     </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="109" spans="3:4">
       <c r="C109" s="37"/>
       <c r="D109"/>
     </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:4">
       <c r="C110" s="37"/>
       <c r="D110"/>
     </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:4">
       <c r="C111" s="37"/>
       <c r="D111"/>
     </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:4">
       <c r="C112" s="37"/>
       <c r="D112"/>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="113" spans="3:4">
       <c r="C113" s="37"/>
       <c r="D113"/>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="114" spans="3:4">
       <c r="C114" s="37"/>
       <c r="D114"/>
     </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="115" spans="3:4">
       <c r="C115" s="37"/>
       <c r="D115"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="116" spans="3:4">
       <c r="C116" s="37"/>
       <c r="D116"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="117" spans="3:4">
       <c r="C117" s="37"/>
       <c r="D117"/>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="118" spans="3:4">
       <c r="C118" s="37"/>
       <c r="D118"/>
     </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="119" spans="3:4">
       <c r="C119" s="37"/>
       <c r="D119"/>
     </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="120" spans="3:4">
       <c r="C120" s="37"/>
       <c r="D120"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="121" spans="3:4">
       <c r="C121" s="37"/>
       <c r="D121"/>
     </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="122" spans="3:4">
       <c r="C122" s="37"/>
       <c r="D122"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="123" spans="3:4">
       <c r="C123" s="37"/>
       <c r="D123"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="124" spans="3:4">
       <c r="C124" s="37"/>
       <c r="D124"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="125" spans="3:4">
       <c r="C125" s="37"/>
       <c r="D125"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="126" spans="3:4">
       <c r="C126" s="37"/>
       <c r="D126"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="127" spans="3:4">
       <c r="C127" s="37"/>
       <c r="D127"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="128" spans="3:4">
       <c r="C128" s="37"/>
       <c r="D128"/>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="129" spans="3:4">
       <c r="C129" s="37"/>
       <c r="D129"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="130" spans="3:4">
       <c r="C130" s="37"/>
       <c r="D130"/>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="131" spans="3:4">
       <c r="C131" s="37"/>
       <c r="D131"/>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="132" spans="3:4">
       <c r="C132" s="37"/>
       <c r="D132"/>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="133" spans="3:4">
       <c r="C133" s="37"/>
       <c r="D133"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="134" spans="3:4">
       <c r="C134" s="37"/>
       <c r="D134"/>
     </row>
@@ -12958,24 +13861,24 @@
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="73" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="73" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="69" customWidth="1"/>
-    <col min="7" max="8" width="18.5" style="69" customWidth="1"/>
+    <col min="7" max="8" width="18.44140625" style="69" customWidth="1"/>
     <col min="9" max="1018" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1018" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="165" t="s">
+    <row r="2" spans="1:1018" ht="27.75" customHeight="1">
+      <c r="B2" s="155" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
       <c r="E2" s="72"/>
       <c r="F2" s="66" t="s">
         <v>58</v>
@@ -12985,28 +13888,28 @@
       </c>
       <c r="H2" s="68"/>
     </row>
-    <row r="3" spans="1:1018" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:1018" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="166" t="s">
+    <row r="3" spans="1:1018" ht="15" thickBot="1"/>
+    <row r="4" spans="1:1018" ht="15" customHeight="1">
+      <c r="B4" s="156" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="168" t="s">
+      <c r="C4" s="158" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="164"/>
-      <c r="F4" s="164"/>
-      <c r="G4" s="164"/>
-      <c r="H4" s="164"/>
-    </row>
-    <row r="5" spans="1:1018" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="167" t="s">
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+    </row>
+    <row r="5" spans="1:1018" ht="16.8" thickBot="1">
+      <c r="B5" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="169"/>
-      <c r="D5" s="169"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
       <c r="E5" s="70" t="s">
         <v>35</v>
       </c>
@@ -13020,7 +13923,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:1018" s="2" customFormat="1" ht="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1018" s="2" customFormat="1" ht="1.05" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -14040,12 +14943,12 @@
       <c r="AMC6" s="3"/>
       <c r="AMD6" s="3"/>
     </row>
-    <row r="7" spans="1:1018" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="156" t="str">
+    <row r="7" spans="1:1018" ht="15" customHeight="1">
+      <c r="B7" s="161" t="str">
         <f>'Pass Fail'!B6</f>
         <v>R112.5</v>
       </c>
-      <c r="C7" s="158" t="s">
+      <c r="C7" s="163" t="s">
         <v>96</v>
       </c>
       <c r="D7" s="51" t="s">
@@ -14064,9 +14967,9 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:1018" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="157"/>
-      <c r="C8" s="159"/>
+    <row r="8" spans="1:1018" ht="15" customHeight="1">
+      <c r="B8" s="162"/>
+      <c r="C8" s="164"/>
       <c r="D8" s="51" t="s">
         <v>67</v>
       </c>
@@ -14083,9 +14986,9 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="9" spans="1:1018" x14ac:dyDescent="0.2">
-      <c r="B9" s="157"/>
-      <c r="C9" s="159"/>
+    <row r="9" spans="1:1018">
+      <c r="B9" s="162"/>
+      <c r="C9" s="164"/>
       <c r="D9" s="51" t="s">
         <v>68</v>
       </c>
@@ -14102,9 +15005,9 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:1018" x14ac:dyDescent="0.2">
-      <c r="B10" s="157"/>
-      <c r="C10" s="159"/>
+    <row r="10" spans="1:1018">
+      <c r="B10" s="162"/>
+      <c r="C10" s="164"/>
       <c r="D10" s="51" t="s">
         <v>69</v>
       </c>
@@ -14121,9 +15024,9 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:1018" x14ac:dyDescent="0.2">
-      <c r="B11" s="157"/>
-      <c r="C11" s="159"/>
+    <row r="11" spans="1:1018">
+      <c r="B11" s="162"/>
+      <c r="C11" s="164"/>
       <c r="D11" s="51" t="s">
         <v>70</v>
       </c>
@@ -14140,9 +15043,9 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:1018" x14ac:dyDescent="0.2">
-      <c r="B12" s="157"/>
-      <c r="C12" s="159"/>
+    <row r="12" spans="1:1018">
+      <c r="B12" s="162"/>
+      <c r="C12" s="164"/>
       <c r="D12" s="51" t="s">
         <v>71</v>
       </c>
@@ -14159,9 +15062,9 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:1018" x14ac:dyDescent="0.2">
-      <c r="B13" s="157"/>
-      <c r="C13" s="159"/>
+    <row r="13" spans="1:1018">
+      <c r="B13" s="162"/>
+      <c r="C13" s="164"/>
       <c r="D13" s="51" t="s">
         <v>72</v>
       </c>
@@ -14178,9 +15081,9 @@
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:1018" x14ac:dyDescent="0.2">
-      <c r="B14" s="157"/>
-      <c r="C14" s="159"/>
+    <row r="14" spans="1:1018">
+      <c r="B14" s="162"/>
+      <c r="C14" s="164"/>
       <c r="D14" s="51" t="s">
         <v>73</v>
       </c>
@@ -14197,9 +15100,9 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:1018" x14ac:dyDescent="0.2">
-      <c r="B15" s="157"/>
-      <c r="C15" s="159"/>
+    <row r="15" spans="1:1018">
+      <c r="B15" s="162"/>
+      <c r="C15" s="164"/>
       <c r="D15" s="51" t="s">
         <v>74</v>
       </c>
@@ -14216,9 +15119,9 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="16" spans="1:1018" x14ac:dyDescent="0.2">
-      <c r="B16" s="157"/>
-      <c r="C16" s="160"/>
+    <row r="16" spans="1:1018">
+      <c r="B16" s="162"/>
+      <c r="C16" s="165"/>
       <c r="D16" s="51" t="s">
         <v>75</v>
       </c>
@@ -14235,9 +15138,9 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="157"/>
-      <c r="C17" s="161" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="162"/>
+      <c r="C17" s="166" t="s">
         <v>85</v>
       </c>
       <c r="D17" s="51" t="s">
@@ -14256,9 +15159,9 @@
         <v>12.706</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="157"/>
-      <c r="C18" s="162"/>
+    <row r="18" spans="2:8">
+      <c r="B18" s="162"/>
+      <c r="C18" s="167"/>
       <c r="D18" s="51" t="s">
         <v>77</v>
       </c>
@@ -14275,9 +15178,9 @@
         <v>2.202</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="157"/>
-      <c r="C19" s="162"/>
+    <row r="19" spans="2:8">
+      <c r="B19" s="162"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="51" t="s">
         <v>78</v>
       </c>
@@ -14294,9 +15197,9 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="157"/>
-      <c r="C20" s="162"/>
+    <row r="20" spans="2:8">
+      <c r="B20" s="162"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="51" t="s">
         <v>79</v>
       </c>
@@ -14313,9 +15216,9 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="157"/>
-      <c r="C21" s="162"/>
+    <row r="21" spans="2:8">
+      <c r="B21" s="162"/>
+      <c r="C21" s="167"/>
       <c r="D21" s="51" t="s">
         <v>80</v>
       </c>
@@ -14332,9 +15235,9 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="157"/>
-      <c r="C22" s="163"/>
+    <row r="22" spans="2:8">
+      <c r="B22" s="162"/>
+      <c r="C22" s="168"/>
       <c r="D22" s="51" t="s">
         <v>81</v>
       </c>
@@ -14351,8 +15254,8 @@
         <v>13.497999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="157"/>
+    <row r="23" spans="2:8">
+      <c r="B23" s="162"/>
       <c r="C23" s="50" t="s">
         <v>86</v>
       </c>
@@ -14372,9 +15275,9 @@
         <v>1.482</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="157"/>
-      <c r="C24" s="155" t="s">
+    <row r="24" spans="2:8">
+      <c r="B24" s="162"/>
+      <c r="C24" s="160" t="s">
         <v>87</v>
       </c>
       <c r="D24" s="51" t="s">
@@ -14393,9 +15296,9 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="157"/>
-      <c r="C25" s="155"/>
+    <row r="25" spans="2:8">
+      <c r="B25" s="162"/>
+      <c r="C25" s="160"/>
       <c r="D25" s="65" t="s">
         <v>105</v>
       </c>
@@ -14414,6 +15317,7 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="E4:H4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -14422,11 +15326,10 @@
     <mergeCell ref="B7:B25"/>
     <mergeCell ref="C7:C16"/>
     <mergeCell ref="C17:C22"/>
-    <mergeCell ref="E4:H4"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="F7:F24">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14450,17 +15353,17 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="12.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:7" ht="49" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" ht="12.45" customHeight="1" thickBot="1"/>
+    <row r="3" spans="2:7" ht="43.8" thickBot="1">
       <c r="B3" s="25" t="s">
         <v>111</v>
       </c>
@@ -14480,7 +15383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="13.8">
       <c r="B4" s="24" t="str">
         <f>'Response Times'!D7</f>
         <v>SC01_Homepage_T01_GetUserDetails</v>
@@ -14505,7 +15408,7 @@
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="13.8">
       <c r="B5" s="24" t="str">
         <f>'Response Times'!D8</f>
         <v>SC01_Homepage_T02_GetAllMasterData_DelayReason</v>
@@ -14530,7 +15433,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="13.8">
       <c r="B6" s="24" t="str">
         <f>'Response Times'!D9</f>
         <v>SC01_Homepage_T03_GetAllMasterData_DelayHead</v>
@@ -14555,7 +15458,7 @@
         <v>0.71099999999999997</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="13.8">
       <c r="B7" s="24" t="str">
         <f>'Response Times'!D10</f>
         <v>SC01_Homepage_T04_GetAllMasterData_Training</v>
@@ -14580,7 +15483,7 @@
         <v>0.91400000000000003</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="13.8">
       <c r="B8" s="24" t="str">
         <f>'Response Times'!D11</f>
         <v>SC01_Homepage_T05_GetAllMasterData_FlightType</v>
@@ -14605,7 +15508,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="13.8">
       <c r="B9" s="24" t="str">
         <f>'Response Times'!D12</f>
         <v>SC01_Homepage_T06_GetAllMasterData_RemarkType</v>
@@ -14630,7 +15533,7 @@
         <v>0.77700000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" ht="13.8">
       <c r="B10" s="24" t="str">
         <f>'Response Times'!D13</f>
         <v>SC01_Homepage_T07_GetAllMasterData_Aircraft</v>
@@ -14655,7 +15558,7 @@
         <v>0.63900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" ht="13.8">
       <c r="B11" s="24" t="str">
         <f>'Response Times'!D14</f>
         <v>SC01_Homepage_T08_GetAllMasterData_Airport</v>
@@ -14680,7 +15583,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" ht="13.8">
       <c r="B12" s="24" t="str">
         <f>'Response Times'!D15</f>
         <v>SC01_Homepage_T09_GetConfigProperties</v>
@@ -14705,7 +15608,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" ht="13.8">
       <c r="B13" s="24" t="str">
         <f>'Response Times'!D16</f>
         <v>SC01_Homepage_T10_GetFlights</v>
@@ -14730,7 +15633,7 @@
         <v>1.4019999999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="13.8">
       <c r="B14" s="24" t="str">
         <f>'Response Times'!D17</f>
         <v>SC02_VerifyScreen_T01_UploadAttachment</v>
@@ -14755,7 +15658,7 @@
         <v>12.706</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" ht="13.8">
       <c r="B15" s="24" t="str">
         <f>'Response Times'!D18</f>
         <v>SC02_VerifyScreen_T02_GetAttachment</v>
@@ -14780,7 +15683,7 @@
         <v>2.202</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" ht="13.8">
       <c r="B16" s="24" t="str">
         <f>'Response Times'!D19</f>
         <v>SC02_VerifyScreen_T03_GetAssignedCrews</v>
@@ -14805,7 +15708,7 @@
         <v>0.56399999999999995</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="13.8">
       <c r="B17" s="24" t="str">
         <f>'Response Times'!D20</f>
         <v>SC02_VerifyScreen_T04_GetAssignedCrewsByHashId</v>
@@ -14830,7 +15733,7 @@
         <v>1.012</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="13.8">
       <c r="B18" s="24" t="str">
         <f>'Response Times'!D21</f>
         <v>SC02_VerifyScreen_T05_GenerateCrewShift</v>
@@ -14855,7 +15758,7 @@
         <v>0.13500000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="13.8">
       <c r="B19" s="24" t="str">
         <f>'Response Times'!D22</f>
         <v>SC02_VerifyScreen_T06_DeleteAttachment</v>
@@ -14880,7 +15783,7 @@
         <v>13.497999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="13.8">
       <c r="B20" s="24" t="str">
         <f>'Response Times'!D23</f>
         <v>SC03_PreviewScreen_T01_SavePSR</v>
@@ -14905,7 +15808,7 @@
         <v>1.482</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="13.8">
       <c r="B21" s="24" t="str">
         <f>'Response Times'!D24</f>
         <v>SC04_SubmitScreen_T01_GetPSR_Reports</v>
@@ -14930,7 +15833,7 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="14" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="13.8">
       <c r="B22" s="24" t="str">
         <f>'Response Times'!D25</f>
         <v>SC04_SubmitScreen_T02_GetPSR_ReportId</v>
@@ -14957,7 +15860,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="1" operator="greaterThan">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14974,10 +15877,10 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="58.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="2"/>
@@ -14985,7 +15888,7 @@
     <col min="7" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11">
       <c r="B2" s="17" t="s">
         <v>59</v>
       </c>
@@ -14994,10 +15897,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" ht="9" customHeight="1">
       <c r="C3"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="19" t="s">
         <v>60</v>
       </c>
@@ -15006,7 +15909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="20" t="s">
         <v>38</v>
       </c>
@@ -15015,7 +15918,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="51" t="s">
         <v>66</v>
       </c>
@@ -15024,213 +15927,213 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="51" t="s">
         <v>89</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="41"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="51" t="s">
         <v>90</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="41"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="51" t="s">
         <v>91</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="41"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="51" t="s">
         <v>92</v>
       </c>
       <c r="C10"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="51" t="s">
         <v>93</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="41"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="51" t="s">
         <v>94</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="41"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="51" t="s">
         <v>95</v>
       </c>
       <c r="C13"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="51" t="s">
         <v>74</v>
       </c>
       <c r="C14"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="51" t="s">
         <v>75</v>
       </c>
       <c r="C15"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="51" t="s">
         <v>76</v>
       </c>
       <c r="C16"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" s="51" t="s">
         <v>77</v>
       </c>
       <c r="C17"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="B18" s="51" t="s">
         <v>78</v>
       </c>
       <c r="C18"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3">
       <c r="B19" s="51" t="s">
         <v>79</v>
       </c>
       <c r="C19"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3">
       <c r="B20" s="51" t="s">
         <v>80</v>
       </c>
       <c r="C20"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3">
       <c r="B21" s="51" t="s">
         <v>81</v>
       </c>
       <c r="C21"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3">
       <c r="B22" s="51" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="18"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="B23" s="51" t="s">
         <v>83</v>
       </c>
       <c r="C23" s="18"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3">
       <c r="B24" s="51" t="s">
         <v>105</v>
       </c>
       <c r="C24" s="18"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="C25" s="18"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="C26" s="18"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3">
       <c r="C27" s="18"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3">
       <c r="C28" s="18"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3">
       <c r="C29" s="18"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3">
       <c r="C30" s="18"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3">
       <c r="C31" s="18"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3">
       <c r="C32" s="18"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3">
       <c r="C33" s="18"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3">
       <c r="C34" s="18"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3">
       <c r="C35" s="18"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3">
       <c r="C36" s="18"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3">
       <c r="C37" s="18"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3">
       <c r="C38" s="18"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3">
       <c r="C39" s="18"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3">
       <c r="C40" s="18"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3">
       <c r="C41" s="18"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3">
       <c r="C42" s="18"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3">
       <c r="C43" s="18"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3">
       <c r="C44" s="18"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:3">
       <c r="C45" s="18"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3">
       <c r="C46" s="18"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3">
       <c r="C47" s="18"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3">
       <c r="C48" s="18"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3">
       <c r="C49" s="18"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3">
       <c r="C50" s="18"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3">
       <c r="C51" s="18"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3">
       <c r="C52" s="18"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3">
       <c r="C53" s="18"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3">
       <c r="C54" s="18"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3">
       <c r="C55" s="18"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3">
       <c r="C56" s="18"/>
     </row>
   </sheetData>
@@ -15255,44 +16158,44 @@
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="66.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="2"/>
-    <col min="6" max="6" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10">
       <c r="B2" s="7"/>
       <c r="J2" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="4.95" customHeight="1"/>
+    <row r="4" spans="2:10">
       <c r="B4" s="172" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="173"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="21"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="171" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="171"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="171"/>
       <c r="C7" s="171"/>
     </row>
-    <row r="8" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" ht="21">
       <c r="B8" s="45" t="s">
         <v>63</v>
       </c>
@@ -15300,7 +16203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" ht="20.399999999999999">
       <c r="B9" s="43" t="s">
         <v>99</v>
       </c>
@@ -15308,59 +16211,59 @@
         <v>0.27500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="31" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10" ht="20.399999999999999">
       <c r="C13" s="48"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:10">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="31" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:3" ht="20.399999999999999">
       <c r="B27" s="42"/>
       <c r="C27" s="42"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3">
       <c r="B28" s="170" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="170"/>
     </row>
-    <row r="29" spans="2:3" ht="20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" ht="21">
       <c r="B29" s="45" t="s">
         <v>63</v>
       </c>
@@ -15368,7 +16271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" ht="20.399999999999999">
       <c r="B30" s="44" t="s">
         <v>99</v>
       </c>
